--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C40B260-9B9C-419B-9BA1-8491E68FBDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4031A9-992B-422C-A63D-CF337DBFD0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entreprises_Complet" sheetId="2" r:id="rId1"/>
+    <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="5" r:id="rId2"/>
     <sheet name="Best Ent A &amp; i" sheetId="3" r:id="rId3"/>
     <sheet name="Best Ent i" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet!$A$1:$CN$126</definedName>
-    <definedName name="d" localSheetId="3">Entreprises_Complet!#REF!</definedName>
-    <definedName name="d">Entreprises_Complet!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$126</definedName>
+    <definedName name="d" localSheetId="3">Entreprises_Complet2!#REF!</definedName>
+    <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1383">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -4299,12 +4299,6 @@
   </si>
   <si>
     <t>Manon Delamour- S2BC App/</t>
-  </si>
-  <si>
-    <t>Crèmerie</t>
-  </si>
-  <si>
-    <t>Nestlé</t>
   </si>
   <si>
     <t>Emma Cenier-S2BC App/</t>
@@ -4937,7 +4931,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5383,15 +5377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5520,7 +5505,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$3</c:f>
+              <c:f>Entreprises_Complet2!$BC$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5567,7 +5552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$3:$CF$3</c:f>
+              <c:f>Entreprises_Complet2!$BZ$3:$CF$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5606,7 +5591,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$3</c:f>
+              <c:f>Entreprises_Complet2!$BC$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5656,7 +5641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$3:$CM$3</c:f>
+              <c:f>Entreprises_Complet2!$CG$3:$CM$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5781,7 +5766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$12</c:f>
+              <c:f>Entreprises_Complet2!$BC$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5828,7 +5813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$12:$CF$12</c:f>
+              <c:f>Entreprises_Complet2!$BZ$12:$CF$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5867,7 +5852,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$12</c:f>
+              <c:f>Entreprises_Complet2!$BC$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5917,7 +5902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$12:$CM$12</c:f>
+              <c:f>Entreprises_Complet2!$CG$12:$CM$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6042,7 +6027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$13</c:f>
+              <c:f>Entreprises_Complet2!$BC$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6089,7 +6074,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$13:$CF$13</c:f>
+              <c:f>Entreprises_Complet2!$BZ$13:$CF$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6128,7 +6113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$13</c:f>
+              <c:f>Entreprises_Complet2!$BC$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6178,7 +6163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$13:$CM$13</c:f>
+              <c:f>Entreprises_Complet2!$CG$13:$CM$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6303,7 +6288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$14</c:f>
+              <c:f>Entreprises_Complet2!$BC$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6350,7 +6335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$14:$CF$14</c:f>
+              <c:f>Entreprises_Complet2!$BZ$14:$CF$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6389,7 +6374,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$14</c:f>
+              <c:f>Entreprises_Complet2!$BC$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6439,7 +6424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$14:$CM$14</c:f>
+              <c:f>Entreprises_Complet2!$CG$14:$CM$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6564,7 +6549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$15</c:f>
+              <c:f>Entreprises_Complet2!$BC$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6611,7 +6596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$15:$CF$15</c:f>
+              <c:f>Entreprises_Complet2!$BZ$15:$CF$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6650,7 +6635,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$15</c:f>
+              <c:f>Entreprises_Complet2!$BC$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6700,7 +6685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$15:$CM$15</c:f>
+              <c:f>Entreprises_Complet2!$CG$15:$CM$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6825,7 +6810,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$16</c:f>
+              <c:f>Entreprises_Complet2!$BC$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6872,7 +6857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$16:$CF$16</c:f>
+              <c:f>Entreprises_Complet2!$BZ$16:$CF$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6911,7 +6896,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$16</c:f>
+              <c:f>Entreprises_Complet2!$BC$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6961,7 +6946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$16:$CM$16</c:f>
+              <c:f>Entreprises_Complet2!$CG$16:$CM$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7086,7 +7071,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$17</c:f>
+              <c:f>Entreprises_Complet2!$BC$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7133,7 +7118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$17:$CF$17</c:f>
+              <c:f>Entreprises_Complet2!$BZ$17:$CF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7172,7 +7157,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$17</c:f>
+              <c:f>Entreprises_Complet2!$BC$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7222,7 +7207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$17:$CM$17</c:f>
+              <c:f>Entreprises_Complet2!$CG$17:$CM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7347,7 +7332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$18</c:f>
+              <c:f>Entreprises_Complet2!$BC$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7394,7 +7379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$18:$CF$18</c:f>
+              <c:f>Entreprises_Complet2!$BZ$18:$CF$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7433,7 +7418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$18</c:f>
+              <c:f>Entreprises_Complet2!$BC$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7483,7 +7468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$18:$CM$18</c:f>
+              <c:f>Entreprises_Complet2!$CG$18:$CM$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7608,7 +7593,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$3</c:f>
+              <c:f>Entreprises_Complet2!$BE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7655,7 +7640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$3:$CF$3</c:f>
+              <c:f>Entreprises_Complet2!$BZ$3:$CF$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7694,7 +7679,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$3</c:f>
+              <c:f>Entreprises_Complet2!$BE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7744,7 +7729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$3:$CM$3</c:f>
+              <c:f>Entreprises_Complet2!$CG$3:$CM$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7869,7 +7854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$4</c:f>
+              <c:f>Entreprises_Complet2!$BE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7916,7 +7901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$4:$CF$4</c:f>
+              <c:f>Entreprises_Complet2!$BZ$4:$CF$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7955,7 +7940,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$4</c:f>
+              <c:f>Entreprises_Complet2!$BE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8005,7 +7990,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$4:$CM$4</c:f>
+              <c:f>Entreprises_Complet2!$CG$4:$CM$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8130,7 +8115,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$5</c:f>
+              <c:f>Entreprises_Complet2!$BE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8177,7 +8162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$5:$CF$5</c:f>
+              <c:f>Entreprises_Complet2!$BZ$5:$CF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8216,7 +8201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$5</c:f>
+              <c:f>Entreprises_Complet2!$BE$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8266,7 +8251,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$5:$CM$5</c:f>
+              <c:f>Entreprises_Complet2!$CG$5:$CM$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8391,7 +8376,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$4</c:f>
+              <c:f>Entreprises_Complet2!$BC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8438,7 +8423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$4:$CF$4</c:f>
+              <c:f>Entreprises_Complet2!$BZ$4:$CF$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8477,7 +8462,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$4</c:f>
+              <c:f>Entreprises_Complet2!$BC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8527,7 +8512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$4:$CM$4</c:f>
+              <c:f>Entreprises_Complet2!$CG$4:$CM$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8668,7 +8653,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$6</c:f>
+              <c:f>Entreprises_Complet2!$BE$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8715,7 +8700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$6:$CF$6</c:f>
+              <c:f>Entreprises_Complet2!$BZ$6:$CF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8754,7 +8739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$6</c:f>
+              <c:f>Entreprises_Complet2!$BE$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8804,7 +8789,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$6:$CM$6</c:f>
+              <c:f>Entreprises_Complet2!$CG$6:$CM$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8929,7 +8914,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$7</c:f>
+              <c:f>Entreprises_Complet2!$BE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8976,7 +8961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$7:$CF$7</c:f>
+              <c:f>Entreprises_Complet2!$BZ$7:$CF$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9015,7 +9000,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$7</c:f>
+              <c:f>Entreprises_Complet2!$BE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9065,7 +9050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$7:$CM$7</c:f>
+              <c:f>Entreprises_Complet2!$CG$7:$CM$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9190,7 +9175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$8</c:f>
+              <c:f>Entreprises_Complet2!$BE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9237,7 +9222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$8:$CF$8</c:f>
+              <c:f>Entreprises_Complet2!$BZ$8:$CF$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9276,7 +9261,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$8</c:f>
+              <c:f>Entreprises_Complet2!$BE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9326,7 +9311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$8:$CM$8</c:f>
+              <c:f>Entreprises_Complet2!$CG$8:$CM$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9451,7 +9436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$9</c:f>
+              <c:f>Entreprises_Complet2!$BE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9498,7 +9483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$9:$CF$9</c:f>
+              <c:f>Entreprises_Complet2!$BZ$9:$CF$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9537,7 +9522,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$9</c:f>
+              <c:f>Entreprises_Complet2!$BE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9587,7 +9572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$9:$CM$9</c:f>
+              <c:f>Entreprises_Complet2!$CG$9:$CM$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9712,7 +9697,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$10</c:f>
+              <c:f>Entreprises_Complet2!$BE$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9759,7 +9744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$10:$CF$10</c:f>
+              <c:f>Entreprises_Complet2!$BZ$10:$CF$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9798,7 +9783,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$10</c:f>
+              <c:f>Entreprises_Complet2!$BE$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9848,7 +9833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$10:$CM$10</c:f>
+              <c:f>Entreprises_Complet2!$CG$10:$CM$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9973,7 +9958,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$11</c:f>
+              <c:f>Entreprises_Complet2!$BE$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10020,7 +10005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$11:$CF$11</c:f>
+              <c:f>Entreprises_Complet2!$BZ$11:$CF$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10059,7 +10044,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$11</c:f>
+              <c:f>Entreprises_Complet2!$BE$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10109,7 +10094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$11:$CM$11</c:f>
+              <c:f>Entreprises_Complet2!$CG$11:$CM$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10234,7 +10219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$12</c:f>
+              <c:f>Entreprises_Complet2!$BE$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10281,7 +10266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$12:$CF$12</c:f>
+              <c:f>Entreprises_Complet2!$BZ$12:$CF$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10320,7 +10305,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$12</c:f>
+              <c:f>Entreprises_Complet2!$BE$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10370,7 +10355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$12:$CM$12</c:f>
+              <c:f>Entreprises_Complet2!$CG$12:$CM$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10495,7 +10480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$13</c:f>
+              <c:f>Entreprises_Complet2!$BE$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10542,7 +10527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$13:$CF$13</c:f>
+              <c:f>Entreprises_Complet2!$BZ$13:$CF$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10581,7 +10566,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$13</c:f>
+              <c:f>Entreprises_Complet2!$BE$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10631,7 +10616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$13:$CM$13</c:f>
+              <c:f>Entreprises_Complet2!$CG$13:$CM$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10756,7 +10741,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$14</c:f>
+              <c:f>Entreprises_Complet2!$BE$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10803,7 +10788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$14:$CF$14</c:f>
+              <c:f>Entreprises_Complet2!$BZ$14:$CF$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10842,7 +10827,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$14</c:f>
+              <c:f>Entreprises_Complet2!$BE$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10892,7 +10877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$14:$CM$14</c:f>
+              <c:f>Entreprises_Complet2!$CG$14:$CM$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11017,7 +11002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$15</c:f>
+              <c:f>Entreprises_Complet2!$BE$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11064,7 +11049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$15:$CF$15</c:f>
+              <c:f>Entreprises_Complet2!$BZ$15:$CF$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11103,7 +11088,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$15</c:f>
+              <c:f>Entreprises_Complet2!$BE$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11153,7 +11138,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$15:$CM$15</c:f>
+              <c:f>Entreprises_Complet2!$CG$15:$CM$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11278,7 +11263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$5</c:f>
+              <c:f>Entreprises_Complet2!$BC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11325,7 +11310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$5:$CF$5</c:f>
+              <c:f>Entreprises_Complet2!$BZ$5:$CF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11364,7 +11349,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$5</c:f>
+              <c:f>Entreprises_Complet2!$BC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11414,7 +11399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$5:$CM$5</c:f>
+              <c:f>Entreprises_Complet2!$CG$5:$CM$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11539,7 +11524,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$16</c:f>
+              <c:f>Entreprises_Complet2!$BE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11586,7 +11571,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$16:$CF$16</c:f>
+              <c:f>Entreprises_Complet2!$BZ$16:$CF$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11625,7 +11610,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$16</c:f>
+              <c:f>Entreprises_Complet2!$BE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11675,7 +11660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$16:$CM$16</c:f>
+              <c:f>Entreprises_Complet2!$CG$16:$CM$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11800,7 +11785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$17</c:f>
+              <c:f>Entreprises_Complet2!$BE$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11847,7 +11832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$17:$CF$17</c:f>
+              <c:f>Entreprises_Complet2!$BZ$17:$CF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11886,7 +11871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$17</c:f>
+              <c:f>Entreprises_Complet2!$BE$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11936,7 +11921,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$17:$CM$17</c:f>
+              <c:f>Entreprises_Complet2!$CG$17:$CM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12061,7 +12046,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$18</c:f>
+              <c:f>Entreprises_Complet2!$BE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12108,7 +12093,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$18:$CF$18</c:f>
+              <c:f>Entreprises_Complet2!$BZ$18:$CF$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12147,7 +12132,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BE$18</c:f>
+              <c:f>Entreprises_Complet2!$BE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12197,7 +12182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$18:$CM$18</c:f>
+              <c:f>Entreprises_Complet2!$CG$18:$CM$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12322,7 +12307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$6</c:f>
+              <c:f>Entreprises_Complet2!$BC$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12369,7 +12354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$6:$CF$6</c:f>
+              <c:f>Entreprises_Complet2!$BZ$6:$CF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12408,7 +12393,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$6</c:f>
+              <c:f>Entreprises_Complet2!$BC$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12458,7 +12443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$6:$CM$6</c:f>
+              <c:f>Entreprises_Complet2!$CG$6:$CM$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12583,7 +12568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$7</c:f>
+              <c:f>Entreprises_Complet2!$BC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12630,7 +12615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$7:$CF$7</c:f>
+              <c:f>Entreprises_Complet2!$BZ$7:$CF$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12669,7 +12654,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$7</c:f>
+              <c:f>Entreprises_Complet2!$BC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12719,7 +12704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$7:$CM$7</c:f>
+              <c:f>Entreprises_Complet2!$CG$7:$CM$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12844,7 +12829,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$8</c:f>
+              <c:f>Entreprises_Complet2!$BC$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12891,7 +12876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$8:$CF$8</c:f>
+              <c:f>Entreprises_Complet2!$BZ$8:$CF$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -12930,7 +12915,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$8</c:f>
+              <c:f>Entreprises_Complet2!$BC$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12980,7 +12965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$8:$CM$8</c:f>
+              <c:f>Entreprises_Complet2!$CG$8:$CM$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13105,7 +13090,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$9</c:f>
+              <c:f>Entreprises_Complet2!$BC$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13152,7 +13137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$9:$CF$9</c:f>
+              <c:f>Entreprises_Complet2!$BZ$9:$CF$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13191,7 +13176,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$9</c:f>
+              <c:f>Entreprises_Complet2!$BC$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13241,7 +13226,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$9:$CM$9</c:f>
+              <c:f>Entreprises_Complet2!$CG$9:$CM$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13366,7 +13351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$10</c:f>
+              <c:f>Entreprises_Complet2!$BC$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13413,7 +13398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$10:$CF$10</c:f>
+              <c:f>Entreprises_Complet2!$BZ$10:$CF$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13452,7 +13437,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$10</c:f>
+              <c:f>Entreprises_Complet2!$BC$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13502,7 +13487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$10:$CM$10</c:f>
+              <c:f>Entreprises_Complet2!$CG$10:$CM$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13627,7 +13612,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$11</c:f>
+              <c:f>Entreprises_Complet2!$BC$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13674,7 +13659,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$BZ$11:$CF$11</c:f>
+              <c:f>Entreprises_Complet2!$BZ$11:$CF$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13713,7 +13698,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entreprises_Complet!$BC$11</c:f>
+              <c:f>Entreprises_Complet2!$BC$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13763,7 +13748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entreprises_Complet!$CG$11:$CM$11</c:f>
+              <c:f>Entreprises_Complet2!$CG$11:$CM$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -15345,12 +15330,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO274"/>
+  <dimension ref="A1:CO273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D129"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15800,7 +15785,7 @@
       <c r="AZ2" s="135"/>
       <c r="BA2" s="135"/>
       <c r="BB2" s="18">
-        <f>RANK(BX2,$BX$2:$BX$129)+COUNTIF(BX$2:BX3,BX2)-1</f>
+        <f>RANK(BX2,$BX$2:$BX$128)+COUNTIF(BX$2:BX3,BX2)-1</f>
         <v>1</v>
       </c>
       <c r="BC2" s="157" t="str">
@@ -15808,7 +15793,7 @@
         <v>N° 1 Delpharm Reims</v>
       </c>
       <c r="BD2" s="18">
-        <f>RANK(BY2,$BY$2:$BY$129)+COUNTIF(BY$2:BY3,BY2)-1</f>
+        <f>RANK(BY2,$BY$2:$BY$128)+COUNTIF(BY$2:BY3,BY2)-1</f>
         <v>8</v>
       </c>
       <c r="BE2" s="157" t="str">
@@ -15935,37 +15920,37 @@
         <f t="shared" ref="D3:D66" si="18">IF(BF3&lt;&gt;0,";2022_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2022_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0,";2021_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2021_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0,";2020_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2020_i="&amp;BK3," ")&amp;IF(BL3&lt;&gt;0,";2019_A="&amp;BL3," ")&amp;IF(BM3&lt;&gt;0," ; 2019_i="&amp;BM3," ")&amp;IF(BN3&lt;&gt;0,";2018_A="&amp;BN3," ")&amp;IF(BO3&lt;&gt;0," ; 2018_i="&amp;BO3," ")&amp;IF(BP3&lt;&gt;0," ; 2017_A="&amp;BP3," ")&amp;IF(BQ3&lt;&gt;0," ; 2017_i="&amp;BQ3," ")&amp;IF(BR3&lt;&gt;0," ; 2016_A="&amp;BR3," ")&amp;IF(BS3&lt;&gt;0," ; 2016_i="&amp;BS3," ")&amp;IF(BT3&lt;&gt;0," ; 2015_A="&amp;BT3," ")&amp;IF(BU3&lt;&gt;0," ; 2015_i="&amp;BU3," ")&amp;IF(BV3&lt;&gt;0," ; 2014_A="&amp;BV3," ")&amp;IF(BW3&lt;&gt;0," ; 2014_i="&amp;BW3," ")</f>
         <v xml:space="preserve">;2022_A=1 ;2021_A=1 ;2020_A=1   ;2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="167" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F3" s="167" t="s">
         <v>1376</v>
-      </c>
-      <c r="F3" s="170" t="s">
-        <v>1378</v>
       </c>
       <c r="G3" s="159"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="170" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J3" s="170" t="s">
-        <v>1377</v>
+      <c r="I3" s="167" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J3" s="167" t="s">
+        <v>1375</v>
       </c>
       <c r="K3" s="159"/>
       <c r="L3" s="159"/>
       <c r="M3" s="61" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="N3" s="61" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O3" s="61" t="s">
         <v>1373</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>1375</v>
       </c>
       <c r="P3" s="156"/>
       <c r="Q3" s="73" t="s">
         <v>1078</v>
       </c>
       <c r="R3" s="61" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="S3" s="61" t="s">
         <v>1075</v>
@@ -16030,7 +16015,7 @@
       <c r="AQ3" s="160">
         <v>51110</v>
       </c>
-      <c r="AR3" s="176" t="s">
+      <c r="AR3" s="173" t="s">
         <v>85</v>
       </c>
       <c r="AS3" s="66" t="s">
@@ -16049,12 +16034,12 @@
       <c r="AY3" s="163" t="s">
         <v>398</v>
       </c>
-      <c r="AZ3" s="178" t="s">
+      <c r="AZ3" s="175" t="s">
         <v>390</v>
       </c>
       <c r="BA3" s="163"/>
       <c r="BB3" s="18">
-        <f>RANK(BX3,$BX$2:$BX$129)+COUNTIF(BX$2:BX4,BX3)-1</f>
+        <f>RANK(BX3,$BX$2:$BX$128)+COUNTIF(BX$2:BX4,BX3)-1</f>
         <v>2</v>
       </c>
       <c r="BC3" s="157" t="str">
@@ -16062,7 +16047,7 @@
         <v>N° 2 CRISTAL-UNION , Bazancourt</v>
       </c>
       <c r="BD3" s="18">
-        <f>RANK(BY3,$BY$2:$BY$129)+COUNTIF(BY$2:BY4,BY3)-1</f>
+        <f>RANK(BY3,$BY$2:$BY$128)+COUNTIF(BY$2:BY4,BY3)-1</f>
         <v>21</v>
       </c>
       <c r="BE3" s="157" t="str">
@@ -16276,7 +16261,7 @@
       <c r="AS4" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="AT4" s="177" t="s">
+      <c r="AT4" s="174" t="s">
         <v>1090</v>
       </c>
       <c r="AU4" s="49"/>
@@ -16294,7 +16279,7 @@
       </c>
       <c r="BA4" s="25"/>
       <c r="BB4" s="18">
-        <f>RANK(BX4,$BX$2:$BX$129)+COUNTIF(BX$2:BX5,BX4)-1</f>
+        <f>RANK(BX4,$BX$2:$BX$128)+COUNTIF(BX$2:BX5,BX4)-1</f>
         <v>3</v>
       </c>
       <c r="BC4" s="63" t="str">
@@ -16302,7 +16287,7 @@
         <v>N° 3 GIVAUDAN (Ex. Soliance)</v>
       </c>
       <c r="BD4" s="18">
-        <f>RANK(BY4,$BY$2:$BY$129)+COUNTIF(BY$2:BY5,BY4)-1</f>
+        <f>RANK(BY4,$BY$2:$BY$128)+COUNTIF(BY$2:BY5,BY4)-1</f>
         <v>11</v>
       </c>
       <c r="BE4" s="63" t="str">
@@ -16514,7 +16499,7 @@
       <c r="AZ5" s="130"/>
       <c r="BA5" s="130"/>
       <c r="BB5" s="18">
-        <f>RANK(BX5,$BX$2:$BX$129)+COUNTIF(BX$2:BX6,BX5)-1</f>
+        <f>RANK(BX5,$BX$2:$BX$128)+COUNTIF(BX$2:BX6,BX5)-1</f>
         <v>4</v>
       </c>
       <c r="BC5" s="63" t="str">
@@ -16522,7 +16507,7 @@
         <v>N° 4 Laboratoire Départemental d’Analyses et de Recherche (LDAR) de l'Aisne.</v>
       </c>
       <c r="BD5" s="18">
-        <f>RANK(BY5,$BY$2:$BY$129)+COUNTIF(BY$2:BY6,BY5)-1</f>
+        <f>RANK(BY5,$BY$2:$BY$128)+COUNTIF(BY$2:BY6,BY5)-1</f>
         <v>9</v>
       </c>
       <c r="BE5" s="63" t="str">
@@ -16740,7 +16725,7 @@
       </c>
       <c r="BA6" s="25"/>
       <c r="BB6" s="18">
-        <f>RANK(BX6,$BX$2:$BX$129)+COUNTIF(BX$2:BX7,BX6)-1</f>
+        <f>RANK(BX6,$BX$2:$BX$128)+COUNTIF(BX$2:BX7,BX6)-1</f>
         <v>5</v>
       </c>
       <c r="BC6" s="63" t="str">
@@ -16748,7 +16733,7 @@
         <v>N° 5 MHCS  (Champagne Moët et Chandon)</v>
       </c>
       <c r="BD6" s="18">
-        <f>RANK(BY6,$BY$2:$BY$129)+COUNTIF(BY$2:BY7,BY6)-1</f>
+        <f>RANK(BY6,$BY$2:$BY$128)+COUNTIF(BY$2:BY7,BY6)-1</f>
         <v>3</v>
       </c>
       <c r="BE6" s="63" t="str">
@@ -16964,7 +16949,7 @@
         <v>399</v>
       </c>
       <c r="BB7" s="18">
-        <f>RANK(BX7,$BX$2:$BX$129)+COUNTIF(BX$2:BX8,BX7)-1</f>
+        <f>RANK(BX7,$BX$2:$BX$128)+COUNTIF(BX$2:BX8,BX7)-1</f>
         <v>6</v>
       </c>
       <c r="BC7" s="63" t="str">
@@ -16972,7 +16957,7 @@
         <v>N° 6 SOFRALAB</v>
       </c>
       <c r="BD7" s="18">
-        <f>RANK(BY7,$BY$2:$BY$129)+COUNTIF(BY$2:BY8,BY7)-1</f>
+        <f>RANK(BY7,$BY$2:$BY$128)+COUNTIF(BY$2:BY8,BY7)-1</f>
         <v>7</v>
       </c>
       <c r="BE7" s="63" t="str">
@@ -17091,19 +17076,19 @@
         <f t="shared" si="18"/>
         <v xml:space="preserve">        ;2018_A=1  ; 2017_A=1 ; 2017_i=1 ; 2016_A=2 ; 2016_i=1 ; 2015_A=1  ; 2014_A=1 </v>
       </c>
-      <c r="E8" s="171"/>
+      <c r="E8" s="168"/>
       <c r="F8" s="11"/>
       <c r="G8" s="159"/>
       <c r="H8" s="159"/>
-      <c r="I8" s="171"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="11"/>
       <c r="K8" s="159"/>
       <c r="L8" s="159"/>
-      <c r="M8" s="171"/>
+      <c r="M8" s="168"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="171"/>
+      <c r="Q8" s="168"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -17186,7 +17171,7 @@
       </c>
       <c r="BA8" s="26"/>
       <c r="BB8" s="18">
-        <f>RANK(BX8,$BX$2:$BX$129)+COUNTIF(BX$2:BX9,BX8)-1</f>
+        <f>RANK(BX8,$BX$2:$BX$128)+COUNTIF(BX$2:BX9,BX8)-1</f>
         <v>7</v>
       </c>
       <c r="BC8" s="63" t="str">
@@ -17194,7 +17179,7 @@
         <v>N° 7 Union Invivo (Ex. Invivo Labs)</v>
       </c>
       <c r="BD8" s="18">
-        <f>RANK(BY8,$BY$2:$BY$129)+COUNTIF(BY$2:BY9,BY8)-1</f>
+        <f>RANK(BY8,$BY$2:$BY$128)+COUNTIF(BY$2:BY9,BY8)-1</f>
         <v>10</v>
       </c>
       <c r="BE8" s="63" t="str">
@@ -17313,23 +17298,23 @@
         <f t="shared" si="18"/>
         <v xml:space="preserve">;2022_A=1 ;2021_A=1 ;2020_A=1             </v>
       </c>
-      <c r="E9" s="172" t="s">
+      <c r="E9" s="169" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="170" t="s">
         <v>1367</v>
       </c>
       <c r="G9" s="159"/>
       <c r="H9" s="159"/>
-      <c r="I9" s="172" t="s">
+      <c r="I9" s="169" t="s">
         <v>349</v>
       </c>
-      <c r="J9" s="173" t="s">
+      <c r="J9" s="170" t="s">
         <v>1366</v>
       </c>
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
-      <c r="M9" s="174" t="s">
+      <c r="M9" s="171" t="s">
         <v>349</v>
       </c>
       <c r="N9" s="123" t="s">
@@ -17337,7 +17322,7 @@
       </c>
       <c r="O9" s="123"/>
       <c r="P9" s="123"/>
-      <c r="Q9" s="174"/>
+      <c r="Q9" s="171"/>
       <c r="R9" s="123"/>
       <c r="S9" s="123"/>
       <c r="T9" s="123"/>
@@ -17395,7 +17380,7 @@
       </c>
       <c r="BA9" s="25"/>
       <c r="BB9" s="18">
-        <f>RANK(BX9,$BX$2:$BX$129)+COUNTIF(BX$2:BX10,BX9)-1</f>
+        <f>RANK(BX9,$BX$2:$BX$128)+COUNTIF(BX$2:BX10,BX9)-1</f>
         <v>9</v>
       </c>
       <c r="BC9" s="63" t="str">
@@ -17403,7 +17388,7 @@
         <v>N° 9 Nestlé France</v>
       </c>
       <c r="BD9" s="18">
-        <f>RANK(BY9,$BY$2:$BY$129)+COUNTIF(BY$2:BY10,BY9)-1</f>
+        <f>RANK(BY9,$BY$2:$BY$128)+COUNTIF(BY$2:BY10,BY9)-1</f>
         <v>34</v>
       </c>
       <c r="BE9" s="63" t="str">
@@ -17501,50 +17486,50 @@
       <c r="CN9" s="16"/>
     </row>
     <row r="10" spans="1:92" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="169" t="s">
-        <v>1379</v>
+      <c r="A10" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="166" t="s">
+        <v>1377</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D10" s="97" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">;2022_A=1 ;2021_A=1 ;2020_A=1             </v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="169" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F10" s="170" t="s">
         <v>1382</v>
-      </c>
-      <c r="F10" s="173" t="s">
-        <v>1384</v>
       </c>
       <c r="G10" s="159"/>
       <c r="H10" s="159"/>
-      <c r="I10" s="172" t="s">
-        <v>1382</v>
-      </c>
-      <c r="J10" s="173" t="s">
-        <v>1383</v>
+      <c r="I10" s="169" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J10" s="170" t="s">
+        <v>1381</v>
       </c>
       <c r="K10" s="159"/>
       <c r="L10" s="159"/>
       <c r="M10" s="123" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="N10" s="123" t="s">
-        <v>1381</v>
-      </c>
-      <c r="O10" s="172"/>
+        <v>1379</v>
+      </c>
+      <c r="O10" s="169"/>
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
       <c r="R10" s="123"/>
-      <c r="S10" s="172"/>
+      <c r="S10" s="169"/>
       <c r="T10" s="123"/>
       <c r="U10" s="95"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="175"/>
+      <c r="W10" s="172"/>
       <c r="X10" s="119"/>
       <c r="Y10" s="53"/>
       <c r="Z10" s="119"/>
@@ -17576,7 +17561,7 @@
       <c r="AZ10" s="119"/>
       <c r="BA10" s="119"/>
       <c r="BB10" s="18">
-        <f>RANK(BX10,$BX$2:$BX$129)+COUNTIF(BX$2:BX11,BX10)-1</f>
+        <f>RANK(BX10,$BX$2:$BX$128)+COUNTIF(BX$2:BX11,BX10)-1</f>
         <v>9</v>
       </c>
       <c r="BC10" s="63" t="str">
@@ -17584,7 +17569,7 @@
         <v>N° 9 Silliker</v>
       </c>
       <c r="BD10" s="18">
-        <f>RANK(BY10,$BY$2:$BY$129)+COUNTIF(BY$2:BY11,BY10)-1</f>
+        <f>RANK(BY10,$BY$2:$BY$128)+COUNTIF(BY$2:BY11,BY10)-1</f>
         <v>35</v>
       </c>
       <c r="BE10" s="63" t="str">
@@ -17707,7 +17692,7 @@
         <v>897</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="O11" s="20" t="s">
         <v>1071</v>
@@ -17717,7 +17702,7 @@
         <v>897</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="S11" s="20" t="s">
         <v>1071</v>
@@ -17774,7 +17759,7 @@
       <c r="AZ11" s="119"/>
       <c r="BA11" s="119"/>
       <c r="BB11" s="18">
-        <f>RANK(BX11,$BX$2:$BX$129)+COUNTIF(BX$2:BX12,BX11)-1</f>
+        <f>RANK(BX11,$BX$2:$BX$128)+COUNTIF(BX$2:BX12,BX11)-1</f>
         <v>11</v>
       </c>
       <c r="BC11" s="63" t="str">
@@ -17782,7 +17767,7 @@
         <v>N° 11 Elle et Vire</v>
       </c>
       <c r="BD11" s="18">
-        <f>RANK(BY11,$BY$2:$BY$129)+COUNTIF(BY$2:BY12,BY11)-1</f>
+        <f>RANK(BY11,$BY$2:$BY$128)+COUNTIF(BY$2:BY12,BY11)-1</f>
         <v>36</v>
       </c>
       <c r="BE11" s="63" t="str">
@@ -17984,7 +17969,7 @@
       <c r="AZ12" s="26"/>
       <c r="BA12" s="26"/>
       <c r="BB12" s="18">
-        <f>RANK(BX12,$BX$2:$BX$129)+COUNTIF(BX$2:BX13,BX12)-1</f>
+        <f>RANK(BX12,$BX$2:$BX$128)+COUNTIF(BX$2:BX13,BX12)-1</f>
         <v>11</v>
       </c>
       <c r="BC12" s="63" t="str">
@@ -17992,7 +17977,7 @@
         <v>N° 11 Elchais (Ex. Sensient Dehydrated Flavors )</v>
       </c>
       <c r="BD12" s="18">
-        <f>RANK(BY12,$BY$2:$BY$129)+COUNTIF(BY$2:BY13,BY12)-1</f>
+        <f>RANK(BY12,$BY$2:$BY$128)+COUNTIF(BY$2:BY13,BY12)-1</f>
         <v>37</v>
       </c>
       <c r="BE12" s="63" t="str">
@@ -18173,7 +18158,7 @@
       <c r="AZ13" s="119"/>
       <c r="BA13" s="119"/>
       <c r="BB13" s="18">
-        <f>RANK(BX13,$BX$2:$BX$129)+COUNTIF(BX$2:BX14,BX13)-1</f>
+        <f>RANK(BX13,$BX$2:$BX$128)+COUNTIF(BX$2:BX14,BX13)-1</f>
         <v>12</v>
       </c>
       <c r="BC13" s="63" t="str">
@@ -18181,7 +18166,7 @@
         <v>N° 12 Laboratoire Unither</v>
       </c>
       <c r="BD13" s="18">
-        <f>RANK(BY13,$BY$2:$BY$129)+COUNTIF(BY$2:BY14,BY13)-1</f>
+        <f>RANK(BY13,$BY$2:$BY$128)+COUNTIF(BY$2:BY14,BY13)-1</f>
         <v>37</v>
       </c>
       <c r="BE13" s="63" t="str">
@@ -18379,7 +18364,7 @@
         <v>399</v>
       </c>
       <c r="BB14" s="18">
-        <f>RANK(BX14,$BX$2:$BX$129)+COUNTIF(BX$2:BX15,BX14)-1</f>
+        <f>RANK(BX14,$BX$2:$BX$128)+COUNTIF(BX$2:BX15,BX14)-1</f>
         <v>14</v>
       </c>
       <c r="BC14" s="63" t="str">
@@ -18387,7 +18372,7 @@
         <v xml:space="preserve">N° 14 VIVESCIA </v>
       </c>
       <c r="BD14" s="18">
-        <f>RANK(BY14,$BY$2:$BY$129)+COUNTIF(BY$2:BY15,BY14)-1</f>
+        <f>RANK(BY14,$BY$2:$BY$128)+COUNTIF(BY$2:BY15,BY14)-1</f>
         <v>1</v>
       </c>
       <c r="BE14" s="63" t="str">
@@ -18585,7 +18570,7 @@
       </c>
       <c r="BA15" s="25"/>
       <c r="BB15" s="18">
-        <f>RANK(BX15,$BX$2:$BX$129)+COUNTIF(BX$2:BX16,BX15)-1</f>
+        <f>RANK(BX15,$BX$2:$BX$128)+COUNTIF(BX$2:BX16,BX15)-1</f>
         <v>15</v>
       </c>
       <c r="BC15" s="63" t="str">
@@ -18593,7 +18578,7 @@
         <v xml:space="preserve">N° 15 Centre Technique - MILLBÄKER </v>
       </c>
       <c r="BD15" s="18">
-        <f>RANK(BY15,$BY$2:$BY$129)+COUNTIF(BY$2:BY16,BY15)-1</f>
+        <f>RANK(BY15,$BY$2:$BY$128)+COUNTIF(BY$2:BY16,BY15)-1</f>
         <v>39</v>
       </c>
       <c r="BE15" s="63" t="str">
@@ -18785,7 +18770,7 @@
       <c r="AZ16" s="26"/>
       <c r="BA16" s="26"/>
       <c r="BB16" s="18">
-        <f>RANK(BX16,$BX$2:$BX$129)+COUNTIF(BX$2:BX17,BX16)-1</f>
+        <f>RANK(BX16,$BX$2:$BX$128)+COUNTIF(BX$2:BX17,BX16)-1</f>
         <v>15</v>
       </c>
       <c r="BC16" s="63" t="str">
@@ -18793,7 +18778,7 @@
         <v>N° 15 Champagne Louis Roederer</v>
       </c>
       <c r="BD16" s="18">
-        <f>RANK(BY16,$BY$2:$BY$129)+COUNTIF(BY$2:BY17,BY16)-1</f>
+        <f>RANK(BY16,$BY$2:$BY$128)+COUNTIF(BY$2:BY17,BY16)-1</f>
         <v>39</v>
       </c>
       <c r="BE16" s="63" t="str">
@@ -18979,7 +18964,7 @@
       <c r="AZ17" s="26"/>
       <c r="BA17" s="26"/>
       <c r="BB17" s="18">
-        <f>RANK(BX17,$BX$2:$BX$129)+COUNTIF(BX$2:BX18,BX17)-1</f>
+        <f>RANK(BX17,$BX$2:$BX$128)+COUNTIF(BX$2:BX18,BX17)-1</f>
         <v>16</v>
       </c>
       <c r="BC17" s="63" t="str">
@@ -18987,7 +18972,7 @@
         <v>N° 16 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</v>
       </c>
       <c r="BD17" s="18">
-        <f>RANK(BY17,$BY$2:$BY$129)+COUNTIF(BY$2:BY18,BY17)-1</f>
+        <f>RANK(BY17,$BY$2:$BY$128)+COUNTIF(BY$2:BY18,BY17)-1</f>
         <v>2</v>
       </c>
       <c r="BE17" s="63" t="str">
@@ -19179,7 +19164,7 @@
       </c>
       <c r="BA18" s="26"/>
       <c r="BB18" s="18">
-        <f>RANK(BX18,$BX$2:$BX$129)+COUNTIF(BX$2:BX19,BX18)-1</f>
+        <f>RANK(BX18,$BX$2:$BX$128)+COUNTIF(BX$2:BX19,BX18)-1</f>
         <v>18</v>
       </c>
       <c r="BC18" s="63" t="str">
@@ -19187,7 +19172,7 @@
         <v xml:space="preserve">N° 18 URCA Fractionnement des Agroressources et Environnement </v>
       </c>
       <c r="BD18" s="18">
-        <f>RANK(BY18,$BY$2:$BY$129)+COUNTIF(BY$2:BY19,BY18)-1</f>
+        <f>RANK(BY18,$BY$2:$BY$128)+COUNTIF(BY$2:BY19,BY18)-1</f>
         <v>5</v>
       </c>
       <c r="BE18" s="63" t="str">
@@ -19379,7 +19364,7 @@
         <v>399</v>
       </c>
       <c r="BB19" s="18">
-        <f>RANK(BX19,$BX$2:$BX$129)+COUNTIF(BX$2:BX20,BX19)-1</f>
+        <f>RANK(BX19,$BX$2:$BX$128)+COUNTIF(BX$2:BX20,BX19)-1</f>
         <v>19</v>
       </c>
       <c r="BC19" s="63" t="str">
@@ -19389,7 +19374,7 @@
 </v>
       </c>
       <c r="BD19" s="18">
-        <f>RANK(BY19,$BY$2:$BY$129)+COUNTIF(BY$2:BY20,BY19)-1</f>
+        <f>RANK(BY19,$BY$2:$BY$128)+COUNTIF(BY$2:BY20,BY19)-1</f>
         <v>6</v>
       </c>
       <c r="BE19" s="63" t="str">
@@ -19575,7 +19560,7 @@
       <c r="AZ20" s="26"/>
       <c r="BA20" s="26"/>
       <c r="BB20" s="18">
-        <f>RANK(BX20,$BX$2:$BX$129)+COUNTIF(BX$2:BX21,BX20)-1</f>
+        <f>RANK(BX20,$BX$2:$BX$128)+COUNTIF(BX$2:BX21,BX20)-1</f>
         <v>20</v>
       </c>
       <c r="BC20" s="63" t="str">
@@ -19583,7 +19568,7 @@
         <v>N° 20 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</v>
       </c>
       <c r="BD20" s="18">
-        <f>RANK(BY20,$BY$2:$BY$129)+COUNTIF(BY$2:BY21,BY20)-1</f>
+        <f>RANK(BY20,$BY$2:$BY$128)+COUNTIF(BY$2:BY21,BY20)-1</f>
         <v>6</v>
       </c>
       <c r="BE20" s="63" t="str">
@@ -19783,7 +19768,7 @@
         <v>399</v>
       </c>
       <c r="BB21" s="18">
-        <f>RANK(BX21,$BX$2:$BX$129)+COUNTIF(BX$2:BX22,BX21)-1</f>
+        <f>RANK(BX21,$BX$2:$BX$128)+COUNTIF(BX$2:BX22,BX21)-1</f>
         <v>21</v>
       </c>
       <c r="BC21" s="63" t="str">
@@ -19791,7 +19776,7 @@
         <v>N° 21 Oenologie Conseil Champagne (O2C)</v>
       </c>
       <c r="BD21" s="18">
-        <f>RANK(BY21,$BY$2:$BY$129)+COUNTIF(BY$2:BY22,BY21)-1</f>
+        <f>RANK(BY21,$BY$2:$BY$128)+COUNTIF(BY$2:BY22,BY21)-1</f>
         <v>41</v>
       </c>
       <c r="BE21" s="63" t="str">
@@ -19981,7 +19966,7 @@
       <c r="AZ22" s="25"/>
       <c r="BA22" s="25"/>
       <c r="BB22" s="18">
-        <f>RANK(BX22,$BX$2:$BX$129)+COUNTIF(BX$2:BX23,BX22)-1</f>
+        <f>RANK(BX22,$BX$2:$BX$128)+COUNTIF(BX$2:BX23,BX22)-1</f>
         <v>21</v>
       </c>
       <c r="BC22" s="63" t="str">
@@ -19989,7 +19974,7 @@
         <v>N° 21 Aquanalyse Laboratoire</v>
       </c>
       <c r="BD22" s="18">
-        <f>RANK(BY22,$BY$2:$BY$129)+COUNTIF(BY$2:BY23,BY22)-1</f>
+        <f>RANK(BY22,$BY$2:$BY$128)+COUNTIF(BY$2:BY23,BY22)-1</f>
         <v>41</v>
       </c>
       <c r="BE22" s="63" t="str">
@@ -20171,7 +20156,7 @@
       </c>
       <c r="BA23" s="25"/>
       <c r="BB23" s="18">
-        <f>RANK(BX23,$BX$2:$BX$129)+COUNTIF(BX$2:BX24,BX23)-1</f>
+        <f>RANK(BX23,$BX$2:$BX$128)+COUNTIF(BX$2:BX24,BX23)-1</f>
         <v>23</v>
       </c>
       <c r="BC23" s="63" t="str">
@@ -20179,7 +20164,7 @@
         <v>N° 23 Laboratoire Agro-Vétérinaire Départemental de la Seine Maritime</v>
       </c>
       <c r="BD23" s="18">
-        <f>RANK(BY23,$BY$2:$BY$129)+COUNTIF(BY$2:BY24,BY23)-1</f>
+        <f>RANK(BY23,$BY$2:$BY$128)+COUNTIF(BY$2:BY24,BY23)-1</f>
         <v>13</v>
       </c>
       <c r="BE23" s="63" t="str">
@@ -20361,7 +20346,7 @@
       <c r="AZ24" s="23"/>
       <c r="BA24" s="25"/>
       <c r="BB24" s="18">
-        <f>RANK(BX24,$BX$2:$BX$129)+COUNTIF(BX$2:BX25,BX24)-1</f>
+        <f>RANK(BX24,$BX$2:$BX$128)+COUNTIF(BX$2:BX25,BX24)-1</f>
         <v>24</v>
       </c>
       <c r="BC24" s="63" t="str">
@@ -20369,7 +20354,7 @@
         <v>N° 24 EURIAL - Laiterie de Jouy</v>
       </c>
       <c r="BD24" s="18">
-        <f>RANK(BY24,$BY$2:$BY$129)+COUNTIF(BY$2:BY25,BY24)-1</f>
+        <f>RANK(BY24,$BY$2:$BY$128)+COUNTIF(BY$2:BY25,BY24)-1</f>
         <v>14</v>
       </c>
       <c r="BE24" s="63" t="str">
@@ -20559,7 +20544,7 @@
       </c>
       <c r="BA25" s="26"/>
       <c r="BB25" s="18">
-        <f>RANK(BX25,$BX$2:$BX$129)+COUNTIF(BX$2:BX26,BX25)-1</f>
+        <f>RANK(BX25,$BX$2:$BX$128)+COUNTIF(BX$2:BX26,BX25)-1</f>
         <v>24</v>
       </c>
       <c r="BC25" s="63" t="str">
@@ -20567,7 +20552,7 @@
         <v>N° 24 A.R.D.</v>
       </c>
       <c r="BD25" s="18">
-        <f>RANK(BY25,$BY$2:$BY$129)+COUNTIF(BY$2:BY26,BY25)-1</f>
+        <f>RANK(BY25,$BY$2:$BY$128)+COUNTIF(BY$2:BY26,BY25)-1</f>
         <v>14</v>
       </c>
       <c r="BE25" s="63" t="str">
@@ -20753,7 +20738,7 @@
       <c r="AZ26" s="49"/>
       <c r="BA26" s="25"/>
       <c r="BB26" s="18">
-        <f>RANK(BX26,$BX$2:$BX$129)+COUNTIF(BX$2:BX27,BX26)-1</f>
+        <f>RANK(BX26,$BX$2:$BX$128)+COUNTIF(BX$2:BX27,BX26)-1</f>
         <v>26</v>
       </c>
       <c r="BC26" s="63" t="str">
@@ -20761,7 +20746,7 @@
         <v>N° 26 Station Oenotechnique de l'Aube (Ex. SAS SOFRALAB)</v>
       </c>
       <c r="BD26" s="18">
-        <f>RANK(BY26,$BY$2:$BY$129)+COUNTIF(BY$2:BY27,BY26)-1</f>
+        <f>RANK(BY26,$BY$2:$BY$128)+COUNTIF(BY$2:BY27,BY26)-1</f>
         <v>16</v>
       </c>
       <c r="BE26" s="63" t="str">
@@ -20937,7 +20922,7 @@
       <c r="AZ27" s="11"/>
       <c r="BA27" s="25"/>
       <c r="BB27" s="18">
-        <f>RANK(BX27,$BX$2:$BX$129)+COUNTIF(BX$2:BX28,BX27)-1</f>
+        <f>RANK(BX27,$BX$2:$BX$128)+COUNTIF(BX$2:BX28,BX27)-1</f>
         <v>27</v>
       </c>
       <c r="BC27" s="63" t="str">
@@ -20945,7 +20930,7 @@
         <v>N° 27 Cogesal MIKO</v>
       </c>
       <c r="BD27" s="18">
-        <f>RANK(BY27,$BY$2:$BY$129)+COUNTIF(BY$2:BY28,BY27)-1</f>
+        <f>RANK(BY27,$BY$2:$BY$128)+COUNTIF(BY$2:BY28,BY27)-1</f>
         <v>17</v>
       </c>
       <c r="BE27" s="63" t="str">
@@ -21123,7 +21108,7 @@
       </c>
       <c r="BA28" s="25"/>
       <c r="BB28" s="18">
-        <f>RANK(BX28,$BX$2:$BX$129)+COUNTIF(BX$2:BX29,BX28)-1</f>
+        <f>RANK(BX28,$BX$2:$BX$128)+COUNTIF(BX$2:BX29,BX28)-1</f>
         <v>28</v>
       </c>
       <c r="BC28" s="63" t="str">
@@ -21131,7 +21116,7 @@
         <v xml:space="preserve">N° 28 Source Aurelle ( Cristalline - 08 ) </v>
       </c>
       <c r="BD28" s="18">
-        <f>RANK(BY28,$BY$2:$BY$129)+COUNTIF(BY$2:BY29,BY28)-1</f>
+        <f>RANK(BY28,$BY$2:$BY$128)+COUNTIF(BY$2:BY29,BY28)-1</f>
         <v>18</v>
       </c>
       <c r="BE28" s="63" t="str">
@@ -21303,7 +21288,7 @@
       <c r="AZ29" s="119"/>
       <c r="BA29" s="119"/>
       <c r="BB29" s="18">
-        <f>RANK(BX29,$BX$2:$BX$129)+COUNTIF(BX$2:BX30,BX29)-1</f>
+        <f>RANK(BX29,$BX$2:$BX$128)+COUNTIF(BX$2:BX30,BX29)-1</f>
         <v>29</v>
       </c>
       <c r="BC29" s="63" t="str">
@@ -21311,7 +21296,7 @@
         <v>N° 29 SAS SYNBIOVIE</v>
       </c>
       <c r="BD29" s="18">
-        <f>RANK(BY29,$BY$2:$BY$129)+COUNTIF(BY$2:BY30,BY29)-1</f>
+        <f>RANK(BY29,$BY$2:$BY$128)+COUNTIF(BY$2:BY30,BY29)-1</f>
         <v>19</v>
       </c>
       <c r="BE29" s="63" t="str">
@@ -21483,7 +21468,7 @@
       <c r="AZ30" s="53"/>
       <c r="BA30" s="53"/>
       <c r="BB30" s="18">
-        <f>RANK(BX30,$BX$2:$BX$129)+COUNTIF(BX$2:BX31,BX30)-1</f>
+        <f>RANK(BX30,$BX$2:$BX$128)+COUNTIF(BX$2:BX31,BX30)-1</f>
         <v>30</v>
       </c>
       <c r="BC30" s="63" t="str">
@@ -21491,7 +21476,7 @@
         <v>N° 30 SOGEA EST BTP Station épuration</v>
       </c>
       <c r="BD30" s="18">
-        <f>RANK(BY30,$BY$2:$BY$129)+COUNTIF(BY$2:BY31,BY30)-1</f>
+        <f>RANK(BY30,$BY$2:$BY$128)+COUNTIF(BY$2:BY31,BY30)-1</f>
         <v>20</v>
       </c>
       <c r="BE30" s="63" t="str">
@@ -21671,7 +21656,7 @@
         <v>399</v>
       </c>
       <c r="BB31" s="18">
-        <f>RANK(BX31,$BX$2:$BX$129)+COUNTIF(BX$2:BX32,BX31)-1</f>
+        <f>RANK(BX31,$BX$2:$BX$128)+COUNTIF(BX$2:BX32,BX31)-1</f>
         <v>30</v>
       </c>
       <c r="BC31" s="63" t="str">
@@ -21679,7 +21664,7 @@
         <v>N° 30 Taittinger C.C.V.C.</v>
       </c>
       <c r="BD31" s="18">
-        <f>RANK(BY31,$BY$2:$BY$129)+COUNTIF(BY$2:BY32,BY31)-1</f>
+        <f>RANK(BY31,$BY$2:$BY$128)+COUNTIF(BY$2:BY32,BY31)-1</f>
         <v>20</v>
       </c>
       <c r="BE31" s="63" t="str">
@@ -21863,7 +21848,7 @@
         <v>399</v>
       </c>
       <c r="BB32" s="18">
-        <f>RANK(BX32,$BX$2:$BX$129)+COUNTIF(BX$2:BX33,BX32)-1</f>
+        <f>RANK(BX32,$BX$2:$BX$128)+COUNTIF(BX$2:BX33,BX32)-1</f>
         <v>32</v>
       </c>
       <c r="BC32" s="63" t="str">
@@ -21871,7 +21856,7 @@
         <v>N° 32 MUMM</v>
       </c>
       <c r="BD32" s="18">
-        <f>RANK(BY32,$BY$2:$BY$129)+COUNTIF(BY$2:BY33,BY32)-1</f>
+        <f>RANK(BY32,$BY$2:$BY$128)+COUNTIF(BY$2:BY33,BY32)-1</f>
         <v>23</v>
       </c>
       <c r="BE32" s="63" t="str">
@@ -22047,7 +22032,7 @@
       <c r="AZ33" s="11"/>
       <c r="BA33" s="25"/>
       <c r="BB33" s="18">
-        <f>RANK(BX33,$BX$2:$BX$129)+COUNTIF(BX$2:BX34,BX33)-1</f>
+        <f>RANK(BX33,$BX$2:$BX$128)+COUNTIF(BX$2:BX34,BX33)-1</f>
         <v>33</v>
       </c>
       <c r="BC33" s="63" t="str">
@@ -22055,7 +22040,7 @@
         <v>N° 33 GRANDS MOULINS DE REIMS (EUROMILL NORD REIMS)</v>
       </c>
       <c r="BD33" s="18">
-        <f>RANK(BY33,$BY$2:$BY$129)+COUNTIF(BY$2:BY34,BY33)-1</f>
+        <f>RANK(BY33,$BY$2:$BY$128)+COUNTIF(BY$2:BY34,BY33)-1</f>
         <v>24</v>
       </c>
       <c r="BE33" s="63" t="str">
@@ -22235,7 +22220,7 @@
       </c>
       <c r="BA34" s="26"/>
       <c r="BB34" s="18">
-        <f>RANK(BX34,$BX$2:$BX$129)+COUNTIF(BX$2:BX35,BX34)-1</f>
+        <f>RANK(BX34,$BX$2:$BX$128)+COUNTIF(BX$2:BX35,BX34)-1</f>
         <v>34</v>
       </c>
       <c r="BC34" s="63" t="str">
@@ -22243,7 +22228,7 @@
         <v>N° 34 I.N.R.A Institut National de la Recherche Agronomique (Reims)</v>
       </c>
       <c r="BD34" s="18">
-        <f>RANK(BY34,$BY$2:$BY$129)+COUNTIF(BY$2:BY35,BY34)-1</f>
+        <f>RANK(BY34,$BY$2:$BY$128)+COUNTIF(BY$2:BY35,BY34)-1</f>
         <v>24</v>
       </c>
       <c r="BE34" s="63" t="str">
@@ -22427,7 +22412,7 @@
       </c>
       <c r="BA35" s="25"/>
       <c r="BB35" s="18">
-        <f>RANK(BX35,$BX$2:$BX$129)+COUNTIF(BX$2:BX36,BX35)-1</f>
+        <f>RANK(BX35,$BX$2:$BX$128)+COUNTIF(BX$2:BX36,BX35)-1</f>
         <v>35</v>
       </c>
       <c r="BC35" s="63" t="str">
@@ -22435,7 +22420,7 @@
         <v xml:space="preserve">N° 35 BONDUELLE TRAITEUR </v>
       </c>
       <c r="BD35" s="18">
-        <f>RANK(BY35,$BY$2:$BY$129)+COUNTIF(BY$2:BY36,BY35)-1</f>
+        <f>RANK(BY35,$BY$2:$BY$128)+COUNTIF(BY$2:BY36,BY35)-1</f>
         <v>43</v>
       </c>
       <c r="BE35" s="63" t="str">
@@ -22619,7 +22604,7 @@
       <c r="AZ36" s="83"/>
       <c r="BA36" s="83"/>
       <c r="BB36" s="18">
-        <f>RANK(BX36,$BX$2:$BX$129)+COUNTIF(BX$2:BX37,BX36)-1</f>
+        <f>RANK(BX36,$BX$2:$BX$128)+COUNTIF(BX$2:BX37,BX36)-1</f>
         <v>36</v>
       </c>
       <c r="BC36" s="63" t="str">
@@ -22627,7 +22612,7 @@
         <v>N° 36 Cristal Union Villette-sur-Aube</v>
       </c>
       <c r="BD36" s="18">
-        <f>RANK(BY36,$BY$2:$BY$129)+COUNTIF(BY$2:BY37,BY36)-1</f>
+        <f>RANK(BY36,$BY$2:$BY$128)+COUNTIF(BY$2:BY37,BY36)-1</f>
         <v>44</v>
       </c>
       <c r="BE36" s="63" t="str">
@@ -22807,7 +22792,7 @@
       <c r="AZ37" s="83"/>
       <c r="BA37" s="83"/>
       <c r="BB37" s="18">
-        <f>RANK(BX37,$BX$2:$BX$129)+COUNTIF(BX$2:BX38,BX37)-1</f>
+        <f>RANK(BX37,$BX$2:$BX$128)+COUNTIF(BX$2:BX38,BX37)-1</f>
         <v>36</v>
       </c>
       <c r="BC37" s="63" t="str">
@@ -22815,7 +22800,7 @@
         <v>N° 36 Laiterie de saint denis de l'hôtel (L.S.D.H.)</v>
       </c>
       <c r="BD37" s="18">
-        <f>RANK(BY37,$BY$2:$BY$129)+COUNTIF(BY$2:BY38,BY37)-1</f>
+        <f>RANK(BY37,$BY$2:$BY$128)+COUNTIF(BY$2:BY38,BY37)-1</f>
         <v>44</v>
       </c>
       <c r="BE37" s="63" t="str">
@@ -22995,7 +22980,7 @@
       <c r="AZ38" s="26"/>
       <c r="BA38" s="26"/>
       <c r="BB38" s="18">
-        <f>RANK(BX38,$BX$2:$BX$129)+COUNTIF(BX$2:BX39,BX38)-1</f>
+        <f>RANK(BX38,$BX$2:$BX$128)+COUNTIF(BX$2:BX39,BX38)-1</f>
         <v>38</v>
       </c>
       <c r="BC38" s="63" t="str">
@@ -23003,7 +22988,7 @@
         <v>N° 38 Aux saveur d'Ardennes</v>
       </c>
       <c r="BD38" s="18">
-        <f>RANK(BY38,$BY$2:$BY$129)+COUNTIF(BY$2:BY39,BY38)-1</f>
+        <f>RANK(BY38,$BY$2:$BY$128)+COUNTIF(BY$2:BY39,BY38)-1</f>
         <v>26</v>
       </c>
       <c r="BE38" s="63" t="str">
@@ -23181,7 +23166,7 @@
         <v>622</v>
       </c>
       <c r="BB39" s="18">
-        <f>RANK(BX39,$BX$2:$BX$129)+COUNTIF(BX$2:BX40,BX39)-1</f>
+        <f>RANK(BX39,$BX$2:$BX$128)+COUNTIF(BX$2:BX40,BX39)-1</f>
         <v>39</v>
       </c>
       <c r="BC39" s="63" t="str">
@@ -23189,7 +23174,7 @@
         <v>N° 39 Demoizet Sarl</v>
       </c>
       <c r="BD39" s="18">
-        <f>RANK(BY39,$BY$2:$BY$129)+COUNTIF(BY$2:BY40,BY39)-1</f>
+        <f>RANK(BY39,$BY$2:$BY$128)+COUNTIF(BY$2:BY40,BY39)-1</f>
         <v>27</v>
       </c>
       <c r="BE39" s="63" t="str">
@@ -23369,7 +23354,7 @@
         <v>399</v>
       </c>
       <c r="BB40" s="18">
-        <f>RANK(BX40,$BX$2:$BX$129)+COUNTIF(BX$2:BX41,BX40)-1</f>
+        <f>RANK(BX40,$BX$2:$BX$128)+COUNTIF(BX$2:BX41,BX40)-1</f>
         <v>40</v>
       </c>
       <c r="BC40" s="63" t="str">
@@ -23377,7 +23362,7 @@
         <v>N° 40 Faculté de Médecine, Unité de Recherche EA 3801</v>
       </c>
       <c r="BD40" s="18">
-        <f>RANK(BY40,$BY$2:$BY$129)+COUNTIF(BY$2:BY41,BY40)-1</f>
+        <f>RANK(BY40,$BY$2:$BY$128)+COUNTIF(BY$2:BY41,BY40)-1</f>
         <v>28</v>
       </c>
       <c r="BE40" s="63" t="str">
@@ -23565,7 +23550,7 @@
         <v>399</v>
       </c>
       <c r="BB41" s="18">
-        <f>RANK(BX41,$BX$2:$BX$129)+COUNTIF(BX$2:BX42,BX41)-1</f>
+        <f>RANK(BX41,$BX$2:$BX$128)+COUNTIF(BX$2:BX42,BX41)-1</f>
         <v>41</v>
       </c>
       <c r="BC41" s="63" t="str">
@@ -23573,7 +23558,7 @@
         <v>N° 41 CRISTANOL</v>
       </c>
       <c r="BD41" s="18">
-        <f>RANK(BY41,$BY$2:$BY$129)+COUNTIF(BY$2:BY42,BY41)-1</f>
+        <f>RANK(BY41,$BY$2:$BY$128)+COUNTIF(BY$2:BY42,BY41)-1</f>
         <v>29</v>
       </c>
       <c r="BE41" s="63" t="str">
@@ -23753,7 +23738,7 @@
         <v>399</v>
       </c>
       <c r="BB42" s="18">
-        <f>RANK(BX42,$BX$2:$BX$129)+COUNTIF(BX$2:BX43,BX42)-1</f>
+        <f>RANK(BX42,$BX$2:$BX$128)+COUNTIF(BX$2:BX43,BX42)-1</f>
         <v>42</v>
       </c>
       <c r="BC42" s="63" t="str">
@@ -23761,7 +23746,7 @@
         <v>N° 42 Institut œnologique de Champagne</v>
       </c>
       <c r="BD42" s="18">
-        <f>RANK(BY42,$BY$2:$BY$129)+COUNTIF(BY$2:BY43,BY42)-1</f>
+        <f>RANK(BY42,$BY$2:$BY$128)+COUNTIF(BY$2:BY43,BY42)-1</f>
         <v>30</v>
       </c>
       <c r="BE42" s="63" t="str">
@@ -23946,7 +23931,7 @@
       </c>
       <c r="BA43" s="26"/>
       <c r="BB43" s="18">
-        <f>RANK(BX43,$BX$2:$BX$129)+COUNTIF(BX$2:BX44,BX43)-1</f>
+        <f>RANK(BX43,$BX$2:$BX$128)+COUNTIF(BX$2:BX44,BX43)-1</f>
         <v>43</v>
       </c>
       <c r="BC43" s="63" t="str">
@@ -23954,7 +23939,7 @@
         <v>N° 43 Institut de Biotechnologie Jacques BOY</v>
       </c>
       <c r="BD43" s="18">
-        <f>RANK(BY43,$BY$2:$BY$129)+COUNTIF(BY$2:BY44,BY43)-1</f>
+        <f>RANK(BY43,$BY$2:$BY$128)+COUNTIF(BY$2:BY44,BY43)-1</f>
         <v>31</v>
       </c>
       <c r="BE43" s="63" t="str">
@@ -24135,7 +24120,7 @@
         <v>399</v>
       </c>
       <c r="BB44" s="18">
-        <f>RANK(BX44,$BX$2:$BX$129)+COUNTIF(BX$2:BX45,BX44)-1</f>
+        <f>RANK(BX44,$BX$2:$BX$128)+COUNTIF(BX$2:BX45,BX44)-1</f>
         <v>44</v>
       </c>
       <c r="BC44" s="63" t="str">
@@ -24143,7 +24128,7 @@
         <v>N° 44 Laboratoire Départemental d’Analyses (CD67)</v>
       </c>
       <c r="BD44" s="18">
-        <f>RANK(BY44,$BY$2:$BY$129)+COUNTIF(BY$2:BY45,BY44)-1</f>
+        <f>RANK(BY44,$BY$2:$BY$128)+COUNTIF(BY$2:BY45,BY44)-1</f>
         <v>32</v>
       </c>
       <c r="BE44" s="63" t="str">
@@ -24322,7 +24307,7 @@
       <c r="AZ45" s="26"/>
       <c r="BA45" s="26"/>
       <c r="BB45" s="18">
-        <f>RANK(BX45,$BX$2:$BX$129)+COUNTIF(BX$2:BX46,BX45)-1</f>
+        <f>RANK(BX45,$BX$2:$BX$128)+COUNTIF(BX$2:BX46,BX45)-1</f>
         <v>45</v>
       </c>
       <c r="BC45" s="63" t="str">
@@ -24330,7 +24315,7 @@
         <v>N° 45 Jaminex</v>
       </c>
       <c r="BD45" s="18">
-        <f>RANK(BY45,$BY$2:$BY$129)+COUNTIF(BY$2:BY46,BY45)-1</f>
+        <f>RANK(BY45,$BY$2:$BY$128)+COUNTIF(BY$2:BY46,BY45)-1</f>
         <v>32</v>
       </c>
       <c r="BE45" s="63" t="str">
@@ -24512,7 +24497,7 @@
       </c>
       <c r="BA46" s="25"/>
       <c r="BB46" s="18">
-        <f>RANK(BX46,$BX$2:$BX$129)+COUNTIF(BX$2:BX47,BX46)-1</f>
+        <f>RANK(BX46,$BX$2:$BX$128)+COUNTIF(BX$2:BX47,BX46)-1</f>
         <v>46</v>
       </c>
       <c r="BC46" s="63" t="str">
@@ -24520,7 +24505,7 @@
         <v>N° 46 TEREOS, Connantre</v>
       </c>
       <c r="BD46" s="18">
-        <f>RANK(BY46,$BY$2:$BY$129)+COUNTIF(BY$2:BY47,BY46)-1</f>
+        <f>RANK(BY46,$BY$2:$BY$128)+COUNTIF(BY$2:BY47,BY46)-1</f>
         <v>46</v>
       </c>
       <c r="BE46" s="63" t="str">
@@ -24692,7 +24677,7 @@
       <c r="AZ47" s="26"/>
       <c r="BA47" s="26"/>
       <c r="BB47" s="18">
-        <f>RANK(BX47,$BX$2:$BX$129)+COUNTIF(BX$2:BX48,BX47)-1</f>
+        <f>RANK(BX47,$BX$2:$BX$128)+COUNTIF(BX$2:BX48,BX47)-1</f>
         <v>46</v>
       </c>
       <c r="BC47" s="63" t="str">
@@ -24700,7 +24685,7 @@
         <v xml:space="preserve">N° 46 ANTARTIC </v>
       </c>
       <c r="BD47" s="18">
-        <f>RANK(BY47,$BY$2:$BY$129)+COUNTIF(BY$2:BY48,BY47)-1</f>
+        <f>RANK(BY47,$BY$2:$BY$128)+COUNTIF(BY$2:BY48,BY47)-1</f>
         <v>47</v>
       </c>
       <c r="BE47" s="63" t="str">
@@ -24874,7 +24859,7 @@
       </c>
       <c r="BA48" s="25"/>
       <c r="BB48" s="18">
-        <f>RANK(BX48,$BX$2:$BX$129)+COUNTIF(BX$2:BX49,BX48)-1</f>
+        <f>RANK(BX48,$BX$2:$BX$128)+COUNTIF(BX$2:BX49,BX48)-1</f>
         <v>48</v>
       </c>
       <c r="BC48" s="63" t="str">
@@ -24882,7 +24867,7 @@
         <v>N° 48 LACTINOV (Ex. UNILEP)</v>
       </c>
       <c r="BD48" s="18">
-        <f>RANK(BY48,$BY$2:$BY$129)+COUNTIF(BY$2:BY49,BY48)-1</f>
+        <f>RANK(BY48,$BY$2:$BY$128)+COUNTIF(BY$2:BY49,BY48)-1</f>
         <v>48</v>
       </c>
       <c r="BE48" s="63" t="str">
@@ -25050,7 +25035,7 @@
       </c>
       <c r="BA49" s="25"/>
       <c r="BB49" s="18">
-        <f>RANK(BX49,$BX$2:$BX$129)+COUNTIF(BX$2:BX50,BX49)-1</f>
+        <f>RANK(BX49,$BX$2:$BX$128)+COUNTIF(BX$2:BX50,BX49)-1</f>
         <v>49</v>
       </c>
       <c r="BC49" s="63" t="str">
@@ -25058,7 +25043,7 @@
         <v>N° 49 URIANE</v>
       </c>
       <c r="BD49" s="18">
-        <f>RANK(BY49,$BY$2:$BY$129)+COUNTIF(BY$2:BY50,BY49)-1</f>
+        <f>RANK(BY49,$BY$2:$BY$128)+COUNTIF(BY$2:BY50,BY49)-1</f>
         <v>49</v>
       </c>
       <c r="BE49" s="63" t="str">
@@ -25224,7 +25209,7 @@
       <c r="AZ50" s="11"/>
       <c r="BA50" s="25"/>
       <c r="BB50" s="18">
-        <f>RANK(BX50,$BX$2:$BX$129)+COUNTIF(BX$2:BX51,BX50)-1</f>
+        <f>RANK(BX50,$BX$2:$BX$128)+COUNTIF(BX$2:BX51,BX50)-1</f>
         <v>50</v>
       </c>
       <c r="BC50" s="63" t="str">
@@ -25232,7 +25217,7 @@
         <v>N° 50 ROQUETTE FRERES</v>
       </c>
       <c r="BD50" s="18">
-        <f>RANK(BY50,$BY$2:$BY$129)+COUNTIF(BY$2:BY51,BY50)-1</f>
+        <f>RANK(BY50,$BY$2:$BY$128)+COUNTIF(BY$2:BY51,BY50)-1</f>
         <v>50</v>
       </c>
       <c r="BE50" s="63" t="str">
@@ -25406,7 +25391,7 @@
       </c>
       <c r="BA51" s="25"/>
       <c r="BB51" s="18">
-        <f>RANK(BX51,$BX$2:$BX$129)+COUNTIF(BX$2:BX52,BX51)-1</f>
+        <f>RANK(BX51,$BX$2:$BX$128)+COUNTIF(BX$2:BX52,BX51)-1</f>
         <v>51</v>
       </c>
       <c r="BC51" s="63" t="str">
@@ -25414,7 +25399,7 @@
         <v xml:space="preserve">N° 51 BABYNOV  </v>
       </c>
       <c r="BD51" s="18">
-        <f>RANK(BY51,$BY$2:$BY$129)+COUNTIF(BY$2:BY52,BY51)-1</f>
+        <f>RANK(BY51,$BY$2:$BY$128)+COUNTIF(BY$2:BY52,BY51)-1</f>
         <v>51</v>
       </c>
       <c r="BE51" s="63" t="str">
@@ -25588,7 +25573,7 @@
         <v>405</v>
       </c>
       <c r="BB52" s="18">
-        <f>RANK(BX52,$BX$2:$BX$129)+COUNTIF(BX$2:BX53,BX52)-1</f>
+        <f>RANK(BX52,$BX$2:$BX$128)+COUNTIF(BX$2:BX53,BX52)-1</f>
         <v>52</v>
       </c>
       <c r="BC52" s="63" t="str">
@@ -25596,7 +25581,7 @@
         <v>N° 52 Canelia (Lactalis) Rouvroy Poudre</v>
       </c>
       <c r="BD52" s="18">
-        <f>RANK(BY52,$BY$2:$BY$129)+COUNTIF(BY$2:BY53,BY52)-1</f>
+        <f>RANK(BY52,$BY$2:$BY$128)+COUNTIF(BY$2:BY53,BY52)-1</f>
         <v>52</v>
       </c>
       <c r="BE52" s="63" t="str">
@@ -25772,7 +25757,7 @@
       </c>
       <c r="BA53" s="26"/>
       <c r="BB53" s="18">
-        <f>RANK(BX53,$BX$2:$BX$129)+COUNTIF(BX$2:BX54,BX53)-1</f>
+        <f>RANK(BX53,$BX$2:$BX$128)+COUNTIF(BX$2:BX54,BX53)-1</f>
         <v>53</v>
       </c>
       <c r="BC53" s="63" t="str">
@@ -25780,7 +25765,7 @@
         <v>N° 53 Laboratoire Départemental d’Analyses des Ardennes</v>
       </c>
       <c r="BD53" s="18">
-        <f>RANK(BY53,$BY$2:$BY$129)+COUNTIF(BY$2:BY54,BY53)-1</f>
+        <f>RANK(BY53,$BY$2:$BY$128)+COUNTIF(BY$2:BY54,BY53)-1</f>
         <v>53</v>
       </c>
       <c r="BE53" s="63" t="str">
@@ -25945,7 +25930,7 @@
       <c r="AZ54" s="11"/>
       <c r="BA54" s="25"/>
       <c r="BB54" s="18">
-        <f>RANK(BX54,$BX$2:$BX$129)+COUNTIF(BX$2:BX55,BX54)-1</f>
+        <f>RANK(BX54,$BX$2:$BX$128)+COUNTIF(BX$2:BX55,BX54)-1</f>
         <v>54</v>
       </c>
       <c r="BC54" s="63" t="str">
@@ -25953,7 +25938,7 @@
         <v>N° 54 BISTER France</v>
       </c>
       <c r="BD54" s="18">
-        <f>RANK(BY54,$BY$2:$BY$129)+COUNTIF(BY$2:BY55,BY54)-1</f>
+        <f>RANK(BY54,$BY$2:$BY$128)+COUNTIF(BY$2:BY55,BY54)-1</f>
         <v>54</v>
       </c>
       <c r="BE54" s="63" t="str">
@@ -26118,7 +26103,7 @@
       <c r="AZ55" s="11"/>
       <c r="BA55" s="25"/>
       <c r="BB55" s="18">
-        <f>RANK(BX55,$BX$2:$BX$129)+COUNTIF(BX$2:BX56,BX55)-1</f>
+        <f>RANK(BX55,$BX$2:$BX$128)+COUNTIF(BX$2:BX56,BX55)-1</f>
         <v>55</v>
       </c>
       <c r="BC55" s="63" t="str">
@@ -26126,7 +26111,7 @@
         <v>N° 55 KALIZEA</v>
       </c>
       <c r="BD55" s="18">
-        <f>RANK(BY55,$BY$2:$BY$129)+COUNTIF(BY$2:BY56,BY55)-1</f>
+        <f>RANK(BY55,$BY$2:$BY$128)+COUNTIF(BY$2:BY56,BY55)-1</f>
         <v>55</v>
       </c>
       <c r="BE55" s="63" t="str">
@@ -26299,7 +26284,7 @@
         <v>399</v>
       </c>
       <c r="BB56" s="18">
-        <f>RANK(BX56,$BX$2:$BX$129)+COUNTIF(BX$2:BX57,BX56)-1</f>
+        <f>RANK(BX56,$BX$2:$BX$128)+COUNTIF(BX$2:BX57,BX56)-1</f>
         <v>56</v>
       </c>
       <c r="BC56" s="63" t="str">
@@ -26307,7 +26292,7 @@
         <v xml:space="preserve">N° 56 FOSSIER </v>
       </c>
       <c r="BD56" s="18">
-        <f>RANK(BY56,$BY$2:$BY$129)+COUNTIF(BY$2:BY57,BY56)-1</f>
+        <f>RANK(BY56,$BY$2:$BY$128)+COUNTIF(BY$2:BY57,BY56)-1</f>
         <v>56</v>
       </c>
       <c r="BE56" s="63" t="str">
@@ -26478,7 +26463,7 @@
       </c>
       <c r="BA57" s="25"/>
       <c r="BB57" s="18">
-        <f>RANK(BX57,$BX$2:$BX$129)+COUNTIF(BX$2:BX58,BX57)-1</f>
+        <f>RANK(BX57,$BX$2:$BX$128)+COUNTIF(BX$2:BX58,BX57)-1</f>
         <v>57</v>
       </c>
       <c r="BC57" s="63" t="str">
@@ -26486,7 +26471,7 @@
         <v xml:space="preserve">N° 57 CRVC Coopérative Régionale des Vins de Champagne </v>
       </c>
       <c r="BD57" s="18">
-        <f>RANK(BY57,$BY$2:$BY$129)+COUNTIF(BY$2:BY58,BY57)-1</f>
+        <f>RANK(BY57,$BY$2:$BY$128)+COUNTIF(BY$2:BY58,BY57)-1</f>
         <v>57</v>
       </c>
       <c r="BE57" s="63" t="str">
@@ -26663,7 +26648,7 @@
         <v>1083</v>
       </c>
       <c r="BB58" s="18">
-        <f>RANK(BX58,$BX$2:$BX$129)+COUNTIF(BX$2:BX59,BX58)-1</f>
+        <f>RANK(BX58,$BX$2:$BX$128)+COUNTIF(BX$2:BX59,BX58)-1</f>
         <v>58</v>
       </c>
       <c r="BC58" s="63" t="str">
@@ -26671,7 +26656,7 @@
         <v>N° 58 Chamtor, ADM</v>
       </c>
       <c r="BD58" s="18">
-        <f>RANK(BY58,$BY$2:$BY$129)+COUNTIF(BY$2:BY59,BY58)-1</f>
+        <f>RANK(BY58,$BY$2:$BY$128)+COUNTIF(BY$2:BY59,BY58)-1</f>
         <v>58</v>
       </c>
       <c r="BE58" s="63" t="str">
@@ -26842,7 +26827,7 @@
       <c r="AZ59" s="11"/>
       <c r="BA59" s="25"/>
       <c r="BB59" s="18">
-        <f>RANK(BX59,$BX$2:$BX$129)+COUNTIF(BX$2:BX60,BX59)-1</f>
+        <f>RANK(BX59,$BX$2:$BX$128)+COUNTIF(BX$2:BX60,BX59)-1</f>
         <v>59</v>
       </c>
       <c r="BC59" s="63" t="str">
@@ -26850,7 +26835,7 @@
         <v>N° 59 Champagne DUVAL – LEROY</v>
       </c>
       <c r="BD59" s="18">
-        <f>RANK(BY59,$BY$2:$BY$129)+COUNTIF(BY$2:BY60,BY59)-1</f>
+        <f>RANK(BY59,$BY$2:$BY$128)+COUNTIF(BY$2:BY60,BY59)-1</f>
         <v>59</v>
       </c>
       <c r="BE59" s="63" t="str">
@@ -27023,7 +27008,7 @@
       </c>
       <c r="BA60" s="25"/>
       <c r="BB60" s="18">
-        <f>RANK(BX60,$BX$2:$BX$129)+COUNTIF(BX$2:BX61,BX60)-1</f>
+        <f>RANK(BX60,$BX$2:$BX$128)+COUNTIF(BX$2:BX61,BX60)-1</f>
         <v>60</v>
       </c>
       <c r="BC60" s="63" t="str">
@@ -27031,7 +27016,7 @@
         <v>N° 60 Distillerie GOYARD</v>
       </c>
       <c r="BD60" s="18">
-        <f>RANK(BY60,$BY$2:$BY$129)+COUNTIF(BY$2:BY61,BY60)-1</f>
+        <f>RANK(BY60,$BY$2:$BY$128)+COUNTIF(BY$2:BY61,BY60)-1</f>
         <v>60</v>
       </c>
       <c r="BE60" s="63" t="str">
@@ -27198,7 +27183,7 @@
       <c r="AZ61" s="25"/>
       <c r="BA61" s="25"/>
       <c r="BB61" s="18">
-        <f>RANK(BX61,$BX$2:$BX$129)+COUNTIF(BX$2:BX62,BX61)-1</f>
+        <f>RANK(BX61,$BX$2:$BX$128)+COUNTIF(BX$2:BX62,BX61)-1</f>
         <v>61</v>
       </c>
       <c r="BC61" s="63" t="str">
@@ -27206,7 +27191,7 @@
         <v>N° 61 Union Champagne</v>
       </c>
       <c r="BD61" s="18">
-        <f>RANK(BY61,$BY$2:$BY$129)+COUNTIF(BY$2:BY62,BY61)-1</f>
+        <f>RANK(BY61,$BY$2:$BY$128)+COUNTIF(BY$2:BY62,BY61)-1</f>
         <v>61</v>
       </c>
       <c r="BE61" s="63" t="str">
@@ -27371,7 +27356,7 @@
       <c r="AZ62" s="11"/>
       <c r="BA62" s="25"/>
       <c r="BB62" s="18">
-        <f>RANK(BX62,$BX$2:$BX$129)+COUNTIF(BX$2:BX63,BX62)-1</f>
+        <f>RANK(BX62,$BX$2:$BX$128)+COUNTIF(BX$2:BX63,BX62)-1</f>
         <v>62</v>
       </c>
       <c r="BC62" s="63" t="str">
@@ -27379,7 +27364,7 @@
         <v>N° 62 Oenofrance champagne</v>
       </c>
       <c r="BD62" s="18">
-        <f>RANK(BY62,$BY$2:$BY$129)+COUNTIF(BY$2:BY63,BY62)-1</f>
+        <f>RANK(BY62,$BY$2:$BY$128)+COUNTIF(BY$2:BY63,BY62)-1</f>
         <v>62</v>
       </c>
       <c r="BE62" s="63" t="str">
@@ -27544,7 +27529,7 @@
       <c r="AZ63" s="11"/>
       <c r="BA63" s="25"/>
       <c r="BB63" s="18">
-        <f>RANK(BX63,$BX$2:$BX$129)+COUNTIF(BX$2:BX64,BX63)-1</f>
+        <f>RANK(BX63,$BX$2:$BX$128)+COUNTIF(BX$2:BX64,BX63)-1</f>
         <v>63</v>
       </c>
       <c r="BC63" s="63" t="str">
@@ -27552,7 +27537,7 @@
         <v>N° 63 CIVC Centre intercommunal des vins de champagne</v>
       </c>
       <c r="BD63" s="18">
-        <f>RANK(BY63,$BY$2:$BY$129)+COUNTIF(BY$2:BY64,BY63)-1</f>
+        <f>RANK(BY63,$BY$2:$BY$128)+COUNTIF(BY$2:BY64,BY63)-1</f>
         <v>63</v>
       </c>
       <c r="BE63" s="63" t="str">
@@ -27727,7 +27712,7 @@
         <v>399</v>
       </c>
       <c r="BB64" s="18">
-        <f>RANK(BX64,$BX$2:$BX$129)+COUNTIF(BX$2:BX65,BX64)-1</f>
+        <f>RANK(BX64,$BX$2:$BX$128)+COUNTIF(BX$2:BX65,BX64)-1</f>
         <v>64</v>
       </c>
       <c r="BC64" s="63" t="str">
@@ -27735,7 +27720,7 @@
         <v>N° 64 MALTEUROP</v>
       </c>
       <c r="BD64" s="18">
-        <f>RANK(BY64,$BY$2:$BY$129)+COUNTIF(BY$2:BY65,BY64)-1</f>
+        <f>RANK(BY64,$BY$2:$BY$128)+COUNTIF(BY$2:BY65,BY64)-1</f>
         <v>64</v>
       </c>
       <c r="BE64" s="63" t="str">
@@ -27904,7 +27889,7 @@
         <v>399</v>
       </c>
       <c r="BB65" s="18">
-        <f>RANK(BX65,$BX$2:$BX$129)+COUNTIF(BX$2:BX66,BX65)-1</f>
+        <f>RANK(BX65,$BX$2:$BX$128)+COUNTIF(BX$2:BX66,BX65)-1</f>
         <v>65</v>
       </c>
       <c r="BC65" s="63" t="str">
@@ -27912,7 +27897,7 @@
         <v>N° 65 COOPERATIVE VINICOLE</v>
       </c>
       <c r="BD65" s="18">
-        <f>RANK(BY65,$BY$2:$BY$129)+COUNTIF(BY$2:BY66,BY65)-1</f>
+        <f>RANK(BY65,$BY$2:$BY$128)+COUNTIF(BY$2:BY66,BY65)-1</f>
         <v>65</v>
       </c>
       <c r="BE65" s="63" t="str">
@@ -28087,7 +28072,7 @@
         <v>399</v>
       </c>
       <c r="BB66" s="18">
-        <f>RANK(BX66,$BX$2:$BX$129)+COUNTIF(BX$2:BX67,BX66)-1</f>
+        <f>RANK(BX66,$BX$2:$BX$128)+COUNTIF(BX$2:BX67,BX66)-1</f>
         <v>66</v>
       </c>
       <c r="BC66" s="63" t="str">
@@ -28095,7 +28080,7 @@
         <v>N° 66 CRISTAL-UNION SILLERY</v>
       </c>
       <c r="BD66" s="18">
-        <f>RANK(BY66,$BY$2:$BY$129)+COUNTIF(BY$2:BY67,BY66)-1</f>
+        <f>RANK(BY66,$BY$2:$BY$128)+COUNTIF(BY$2:BY67,BY66)-1</f>
         <v>66</v>
       </c>
       <c r="BE66" s="63" t="str">
@@ -28197,7 +28182,7 @@
         <v>38</v>
       </c>
       <c r="D67" s="97" t="str">
-        <f t="shared" ref="D67:D129" si="55">IF(BF67&lt;&gt;0,";2022_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2022_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0,";2021_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2021_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0,";2020_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2020_i="&amp;BK67," ")&amp;IF(BL67&lt;&gt;0,";2019_A="&amp;BL67," ")&amp;IF(BM67&lt;&gt;0," ; 2019_i="&amp;BM67," ")&amp;IF(BN67&lt;&gt;0,";2018_A="&amp;BN67," ")&amp;IF(BO67&lt;&gt;0," ; 2018_i="&amp;BO67," ")&amp;IF(BP67&lt;&gt;0," ; 2017_A="&amp;BP67," ")&amp;IF(BQ67&lt;&gt;0," ; 2017_i="&amp;BQ67," ")&amp;IF(BR67&lt;&gt;0," ; 2016_A="&amp;BR67," ")&amp;IF(BS67&lt;&gt;0," ; 2016_i="&amp;BS67," ")&amp;IF(BT67&lt;&gt;0," ; 2015_A="&amp;BT67," ")&amp;IF(BU67&lt;&gt;0," ; 2015_i="&amp;BU67," ")&amp;IF(BV67&lt;&gt;0," ; 2014_A="&amp;BV67," ")&amp;IF(BW67&lt;&gt;0," ; 2014_i="&amp;BW67," ")</f>
+        <f t="shared" ref="D67:D128" si="55">IF(BF67&lt;&gt;0,";2022_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2022_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0,";2021_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2021_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0,";2020_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2020_i="&amp;BK67," ")&amp;IF(BL67&lt;&gt;0,";2019_A="&amp;BL67," ")&amp;IF(BM67&lt;&gt;0," ; 2019_i="&amp;BM67," ")&amp;IF(BN67&lt;&gt;0,";2018_A="&amp;BN67," ")&amp;IF(BO67&lt;&gt;0," ; 2018_i="&amp;BO67," ")&amp;IF(BP67&lt;&gt;0," ; 2017_A="&amp;BP67," ")&amp;IF(BQ67&lt;&gt;0," ; 2017_i="&amp;BQ67," ")&amp;IF(BR67&lt;&gt;0," ; 2016_A="&amp;BR67," ")&amp;IF(BS67&lt;&gt;0," ; 2016_i="&amp;BS67," ")&amp;IF(BT67&lt;&gt;0," ; 2015_A="&amp;BT67," ")&amp;IF(BU67&lt;&gt;0," ; 2015_i="&amp;BU67," ")&amp;IF(BV67&lt;&gt;0," ; 2014_A="&amp;BV67," ")&amp;IF(BW67&lt;&gt;0," ; 2014_i="&amp;BW67," ")</f>
         <v xml:space="preserve">                  </v>
       </c>
       <c r="E67" s="159"/>
@@ -28262,7 +28247,7 @@
       <c r="AZ67" s="11"/>
       <c r="BA67" s="25"/>
       <c r="BB67" s="18">
-        <f>RANK(BX67,$BX$2:$BX$129)+COUNTIF(BX$2:BX68,BX67)-1</f>
+        <f>RANK(BX67,$BX$2:$BX$128)+COUNTIF(BX$2:BX68,BX67)-1</f>
         <v>67</v>
       </c>
       <c r="BC67" s="63" t="str">
@@ -28270,7 +28255,7 @@
         <v xml:space="preserve">N° 67 Mc Cain  </v>
       </c>
       <c r="BD67" s="18">
-        <f>RANK(BY67,$BY$2:$BY$129)+COUNTIF(BY$2:BY68,BY67)-1</f>
+        <f>RANK(BY67,$BY$2:$BY$128)+COUNTIF(BY$2:BY68,BY67)-1</f>
         <v>67</v>
       </c>
       <c r="BE67" s="63" t="str">
@@ -28441,7 +28426,7 @@
         <v>399</v>
       </c>
       <c r="BB68" s="18">
-        <f>RANK(BX68,$BX$2:$BX$129)+COUNTIF(BX$2:BX69,BX68)-1</f>
+        <f>RANK(BX68,$BX$2:$BX$128)+COUNTIF(BX$2:BX69,BX68)-1</f>
         <v>68</v>
       </c>
       <c r="BC68" s="63" t="str">
@@ -28449,7 +28434,7 @@
         <v>N° 68 VRANKEN-POMMERY</v>
       </c>
       <c r="BD68" s="18">
-        <f>RANK(BY68,$BY$2:$BY$129)+COUNTIF(BY$2:BY69,BY68)-1</f>
+        <f>RANK(BY68,$BY$2:$BY$128)+COUNTIF(BY$2:BY69,BY68)-1</f>
         <v>68</v>
       </c>
       <c r="BE68" s="63" t="str">
@@ -28614,7 +28599,7 @@
       <c r="AZ69" s="11"/>
       <c r="BA69" s="25"/>
       <c r="BB69" s="18">
-        <f>RANK(BX69,$BX$2:$BX$129)+COUNTIF(BX$2:BX70,BX69)-1</f>
+        <f>RANK(BX69,$BX$2:$BX$128)+COUNTIF(BX$2:BX70,BX69)-1</f>
         <v>69</v>
       </c>
       <c r="BC69" s="63" t="str">
@@ -28622,7 +28607,7 @@
         <v xml:space="preserve">N° 69 CLAIR DE LORRAINE </v>
       </c>
       <c r="BD69" s="18">
-        <f>RANK(BY69,$BY$2:$BY$129)+COUNTIF(BY$2:BY70,BY69)-1</f>
+        <f>RANK(BY69,$BY$2:$BY$128)+COUNTIF(BY$2:BY70,BY69)-1</f>
         <v>69</v>
       </c>
       <c r="BE69" s="63" t="str">
@@ -28795,7 +28780,7 @@
       </c>
       <c r="BA70" s="25"/>
       <c r="BB70" s="18">
-        <f>RANK(BX70,$BX$2:$BX$129)+COUNTIF(BX$2:BX71,BX70)-1</f>
+        <f>RANK(BX70,$BX$2:$BX$128)+COUNTIF(BX$2:BX71,BX70)-1</f>
         <v>70</v>
       </c>
       <c r="BC70" s="63" t="str">
@@ -28803,7 +28788,7 @@
         <v>N° 70 Fromagerie RENARD-GILLARD</v>
       </c>
       <c r="BD70" s="18">
-        <f>RANK(BY70,$BY$2:$BY$129)+COUNTIF(BY$2:BY71,BY70)-1</f>
+        <f>RANK(BY70,$BY$2:$BY$128)+COUNTIF(BY$2:BY71,BY70)-1</f>
         <v>70</v>
       </c>
       <c r="BE70" s="63" t="str">
@@ -28968,7 +28953,7 @@
       <c r="AZ71" s="11"/>
       <c r="BA71" s="25"/>
       <c r="BB71" s="18">
-        <f>RANK(BX71,$BX$2:$BX$129)+COUNTIF(BX$2:BX72,BX71)-1</f>
+        <f>RANK(BX71,$BX$2:$BX$128)+COUNTIF(BX$2:BX72,BX71)-1</f>
         <v>71</v>
       </c>
       <c r="BC71" s="63" t="str">
@@ -28976,7 +28961,7 @@
         <v xml:space="preserve">N° 71 LESAFFRE INTERNATIONAL </v>
       </c>
       <c r="BD71" s="18">
-        <f>RANK(BY71,$BY$2:$BY$129)+COUNTIF(BY$2:BY72,BY71)-1</f>
+        <f>RANK(BY71,$BY$2:$BY$128)+COUNTIF(BY$2:BY72,BY71)-1</f>
         <v>71</v>
       </c>
       <c r="BE71" s="63" t="str">
@@ -29145,7 +29130,7 @@
       <c r="AZ72" s="26"/>
       <c r="BA72" s="26"/>
       <c r="BB72" s="18">
-        <f>RANK(BX72,$BX$2:$BX$129)+COUNTIF(BX$2:BX73,BX72)-1</f>
+        <f>RANK(BX72,$BX$2:$BX$128)+COUNTIF(BX$2:BX73,BX72)-1</f>
         <v>72</v>
       </c>
       <c r="BC72" s="63" t="str">
@@ -29153,7 +29138,7 @@
         <v>N° 72 EUREAU SOURCES</v>
       </c>
       <c r="BD72" s="18">
-        <f>RANK(BY72,$BY$2:$BY$129)+COUNTIF(BY$2:BY73,BY72)-1</f>
+        <f>RANK(BY72,$BY$2:$BY$128)+COUNTIF(BY$2:BY73,BY72)-1</f>
         <v>72</v>
       </c>
       <c r="BE72" s="63" t="str">
@@ -29318,7 +29303,7 @@
       <c r="AZ73" s="11"/>
       <c r="BA73" s="25"/>
       <c r="BB73" s="18">
-        <f>RANK(BX73,$BX$2:$BX$129)+COUNTIF(BX$2:BX74,BX73)-1</f>
+        <f>RANK(BX73,$BX$2:$BX$128)+COUNTIF(BX$2:BX74,BX73)-1</f>
         <v>73</v>
       </c>
       <c r="BC73" s="63" t="str">
@@ -29326,7 +29311,7 @@
         <v>N° 73 Pâtes Grand'Mère</v>
       </c>
       <c r="BD73" s="18">
-        <f>RANK(BY73,$BY$2:$BY$129)+COUNTIF(BY$2:BY74,BY73)-1</f>
+        <f>RANK(BY73,$BY$2:$BY$128)+COUNTIF(BY$2:BY74,BY73)-1</f>
         <v>73</v>
       </c>
       <c r="BE73" s="63" t="str">
@@ -29497,7 +29482,7 @@
       <c r="AZ74" s="47"/>
       <c r="BA74" s="47"/>
       <c r="BB74" s="18">
-        <f>RANK(BX74,$BX$2:$BX$129)+COUNTIF(BX$2:BX75,BX74)-1</f>
+        <f>RANK(BX74,$BX$2:$BX$128)+COUNTIF(BX$2:BX75,BX74)-1</f>
         <v>74</v>
       </c>
       <c r="BC74" s="63" t="str">
@@ -29505,7 +29490,7 @@
         <v>N° 74 Moulins Bourgeois</v>
       </c>
       <c r="BD74" s="18">
-        <f>RANK(BY74,$BY$2:$BY$129)+COUNTIF(BY$2:BY75,BY74)-1</f>
+        <f>RANK(BY74,$BY$2:$BY$128)+COUNTIF(BY$2:BY75,BY74)-1</f>
         <v>74</v>
       </c>
       <c r="BE74" s="63" t="str">
@@ -29676,7 +29661,7 @@
       <c r="AZ75" s="11"/>
       <c r="BA75" s="25"/>
       <c r="BB75" s="18">
-        <f>RANK(BX75,$BX$2:$BX$129)+COUNTIF(BX$2:BX76,BX75)-1</f>
+        <f>RANK(BX75,$BX$2:$BX$128)+COUNTIF(BX$2:BX76,BX75)-1</f>
         <v>75</v>
       </c>
       <c r="BC75" s="63" t="str">
@@ -29684,7 +29669,7 @@
         <v>N° 75 NUTRIBIO</v>
       </c>
       <c r="BD75" s="18">
-        <f>RANK(BY75,$BY$2:$BY$129)+COUNTIF(BY$2:BY76,BY75)-1</f>
+        <f>RANK(BY75,$BY$2:$BY$128)+COUNTIF(BY$2:BY76,BY75)-1</f>
         <v>75</v>
       </c>
       <c r="BE75" s="63" t="str">
@@ -29857,7 +29842,7 @@
       </c>
       <c r="BA76" s="25"/>
       <c r="BB76" s="18">
-        <f>RANK(BX76,$BX$2:$BX$129)+COUNTIF(BX$2:BX77,BX76)-1</f>
+        <f>RANK(BX76,$BX$2:$BX$128)+COUNTIF(BX$2:BX77,BX76)-1</f>
         <v>76</v>
       </c>
       <c r="BC76" s="63" t="str">
@@ -29865,7 +29850,7 @@
         <v>N° 76 YOPLAIT France</v>
       </c>
       <c r="BD76" s="18">
-        <f>RANK(BY76,$BY$2:$BY$129)+COUNTIF(BY$2:BY77,BY76)-1</f>
+        <f>RANK(BY76,$BY$2:$BY$128)+COUNTIF(BY$2:BY77,BY76)-1</f>
         <v>76</v>
       </c>
       <c r="BE76" s="63" t="str">
@@ -30034,7 +30019,7 @@
       <c r="AZ77" s="26"/>
       <c r="BA77" s="26"/>
       <c r="BB77" s="18">
-        <f>RANK(BX77,$BX$2:$BX$129)+COUNTIF(BX$2:BX78,BX77)-1</f>
+        <f>RANK(BX77,$BX$2:$BX$128)+COUNTIF(BX$2:BX78,BX77)-1</f>
         <v>77</v>
       </c>
       <c r="BC77" s="63" t="str">
@@ -30042,7 +30027,7 @@
         <v>N° 77 Champagne Taittinger</v>
       </c>
       <c r="BD77" s="18">
-        <f>RANK(BY77,$BY$2:$BY$129)+COUNTIF(BY$2:BY78,BY77)-1</f>
+        <f>RANK(BY77,$BY$2:$BY$128)+COUNTIF(BY$2:BY78,BY77)-1</f>
         <v>77</v>
       </c>
       <c r="BE77" s="63" t="str">
@@ -30217,7 +30202,7 @@
         <v>399</v>
       </c>
       <c r="BB78" s="18">
-        <f>RANK(BX78,$BX$2:$BX$129)+COUNTIF(BX$2:BX79,BX78)-1</f>
+        <f>RANK(BX78,$BX$2:$BX$128)+COUNTIF(BX$2:BX79,BX78)-1</f>
         <v>78</v>
       </c>
       <c r="BC78" s="63" t="str">
@@ -30225,7 +30210,7 @@
         <v>N° 78 Coopérative du Syndicat Général des Vignerons (C.S.G.V.)</v>
       </c>
       <c r="BD78" s="18">
-        <f>RANK(BY78,$BY$2:$BY$129)+COUNTIF(BY$2:BY79,BY78)-1</f>
+        <f>RANK(BY78,$BY$2:$BY$128)+COUNTIF(BY$2:BY79,BY78)-1</f>
         <v>78</v>
       </c>
       <c r="BE78" s="63" t="str">
@@ -30398,7 +30383,7 @@
       </c>
       <c r="BA79" s="25"/>
       <c r="BB79" s="18">
-        <f>RANK(BX79,$BX$2:$BX$129)+COUNTIF(BX$2:BX80,BX79)-1</f>
+        <f>RANK(BX79,$BX$2:$BX$128)+COUNTIF(BX$2:BX80,BX79)-1</f>
         <v>79</v>
       </c>
       <c r="BC79" s="63" t="str">
@@ -30406,7 +30391,7 @@
         <v>N° 79 Oenologie Conseil Champagne (O2C)</v>
       </c>
       <c r="BD79" s="18">
-        <f>RANK(BY79,$BY$2:$BY$129)+COUNTIF(BY$2:BY80,BY79)-1</f>
+        <f>RANK(BY79,$BY$2:$BY$128)+COUNTIF(BY$2:BY80,BY79)-1</f>
         <v>79</v>
       </c>
       <c r="BE79" s="63" t="str">
@@ -30579,7 +30564,7 @@
       </c>
       <c r="BA80" s="25"/>
       <c r="BB80" s="18">
-        <f>RANK(BX80,$BX$2:$BX$129)+COUNTIF(BX$2:BX81,BX80)-1</f>
+        <f>RANK(BX80,$BX$2:$BX$128)+COUNTIF(BX$2:BX81,BX80)-1</f>
         <v>80</v>
       </c>
       <c r="BC80" s="63" t="str">
@@ -30587,7 +30572,7 @@
         <v>N° 80 Centre Vinicole Champagne Nicolas Feuillatte</v>
       </c>
       <c r="BD80" s="18">
-        <f>RANK(BY80,$BY$2:$BY$129)+COUNTIF(BY$2:BY81,BY80)-1</f>
+        <f>RANK(BY80,$BY$2:$BY$128)+COUNTIF(BY$2:BY81,BY80)-1</f>
         <v>80</v>
       </c>
       <c r="BE80" s="63" t="str">
@@ -30754,7 +30739,7 @@
       </c>
       <c r="BA81" s="25"/>
       <c r="BB81" s="18">
-        <f>RANK(BX81,$BX$2:$BX$129)+COUNTIF(BX$2:BX82,BX81)-1</f>
+        <f>RANK(BX81,$BX$2:$BX$128)+COUNTIF(BX$2:BX82,BX81)-1</f>
         <v>81</v>
       </c>
       <c r="BC81" s="63" t="str">
@@ -30762,7 +30747,7 @@
         <v>N° 81 Dislaub, Service de gestion des déchets</v>
       </c>
       <c r="BD81" s="18">
-        <f>RANK(BY81,$BY$2:$BY$129)+COUNTIF(BY$2:BY82,BY81)-1</f>
+        <f>RANK(BY81,$BY$2:$BY$128)+COUNTIF(BY$2:BY82,BY81)-1</f>
         <v>81</v>
       </c>
       <c r="BE81" s="63" t="str">
@@ -30931,7 +30916,7 @@
       <c r="AZ82" s="23"/>
       <c r="BA82" s="25"/>
       <c r="BB82" s="18">
-        <f>RANK(BX82,$BX$2:$BX$129)+COUNTIF(BX$2:BX83,BX82)-1</f>
+        <f>RANK(BX82,$BX$2:$BX$128)+COUNTIF(BX$2:BX83,BX82)-1</f>
         <v>82</v>
       </c>
       <c r="BC82" s="63" t="str">
@@ -30939,7 +30924,7 @@
         <v>N° 82 Eau De Paris</v>
       </c>
       <c r="BD82" s="18">
-        <f>RANK(BY82,$BY$2:$BY$129)+COUNTIF(BY$2:BY83,BY82)-1</f>
+        <f>RANK(BY82,$BY$2:$BY$128)+COUNTIF(BY$2:BY83,BY82)-1</f>
         <v>82</v>
       </c>
       <c r="BE82" s="63" t="str">
@@ -31106,7 +31091,7 @@
         <v>399</v>
       </c>
       <c r="BB83" s="18">
-        <f>RANK(BX83,$BX$2:$BX$129)+COUNTIF(BX$2:BX84,BX83)-1</f>
+        <f>RANK(BX83,$BX$2:$BX$128)+COUNTIF(BX$2:BX84,BX83)-1</f>
         <v>83</v>
       </c>
       <c r="BC83" s="63" t="str">
@@ -31114,7 +31099,7 @@
         <v>N° 83 FERTEMIS</v>
       </c>
       <c r="BD83" s="18">
-        <f>RANK(BY83,$BY$2:$BY$129)+COUNTIF(BY$2:BY84,BY83)-1</f>
+        <f>RANK(BY83,$BY$2:$BY$128)+COUNTIF(BY$2:BY84,BY83)-1</f>
         <v>83</v>
       </c>
       <c r="BE83" s="63" t="str">
@@ -31287,7 +31272,7 @@
       </c>
       <c r="BA84" s="25"/>
       <c r="BB84" s="18">
-        <f>RANK(BX84,$BX$2:$BX$129)+COUNTIF(BX$2:BX85,BX84)-1</f>
+        <f>RANK(BX84,$BX$2:$BX$128)+COUNTIF(BX$2:BX85,BX84)-1</f>
         <v>84</v>
       </c>
       <c r="BC84" s="63" t="str">
@@ -31295,7 +31280,7 @@
         <v>N° 84 Tereos Starch &amp; Sweeteners Europe</v>
       </c>
       <c r="BD84" s="18">
-        <f>RANK(BY84,$BY$2:$BY$129)+COUNTIF(BY$2:BY85,BY84)-1</f>
+        <f>RANK(BY84,$BY$2:$BY$128)+COUNTIF(BY$2:BY85,BY84)-1</f>
         <v>84</v>
       </c>
       <c r="BE84" s="63" t="str">
@@ -31460,7 +31445,7 @@
       <c r="AZ85" s="23"/>
       <c r="BA85" s="25"/>
       <c r="BB85" s="18">
-        <f>RANK(BX85,$BX$2:$BX$129)+COUNTIF(BX$2:BX86,BX85)-1</f>
+        <f>RANK(BX85,$BX$2:$BX$128)+COUNTIF(BX$2:BX86,BX85)-1</f>
         <v>85</v>
       </c>
       <c r="BC85" s="63" t="str">
@@ -31468,7 +31453,7 @@
         <v>N° 85 Fromagerie Badoz</v>
       </c>
       <c r="BD85" s="18">
-        <f>RANK(BY85,$BY$2:$BY$129)+COUNTIF(BY$2:BY86,BY85)-1</f>
+        <f>RANK(BY85,$BY$2:$BY$128)+COUNTIF(BY$2:BY86,BY85)-1</f>
         <v>85</v>
       </c>
       <c r="BE85" s="63" t="str">
@@ -31636,7 +31621,7 @@
       </c>
       <c r="BA86" s="26"/>
       <c r="BB86" s="18">
-        <f>RANK(BX86,$BX$2:$BX$129)+COUNTIF(BX$2:BX87,BX86)-1</f>
+        <f>RANK(BX86,$BX$2:$BX$128)+COUNTIF(BX$2:BX87,BX86)-1</f>
         <v>86</v>
       </c>
       <c r="BC86" s="63" t="str">
@@ -31644,7 +31629,7 @@
         <v>N° 86 HUGUIER Frères</v>
       </c>
       <c r="BD86" s="18">
-        <f>RANK(BY86,$BY$2:$BY$129)+COUNTIF(BY$2:BY87,BY86)-1</f>
+        <f>RANK(BY86,$BY$2:$BY$128)+COUNTIF(BY$2:BY87,BY86)-1</f>
         <v>86</v>
       </c>
       <c r="BE86" s="63" t="str">
@@ -31816,7 +31801,7 @@
       <c r="AZ87" s="26"/>
       <c r="BA87" s="26"/>
       <c r="BB87" s="18">
-        <f>RANK(BX87,$BX$2:$BX$129)+COUNTIF(BX$2:BX88,BX87)-1</f>
+        <f>RANK(BX87,$BX$2:$BX$128)+COUNTIF(BX$2:BX88,BX87)-1</f>
         <v>87</v>
       </c>
       <c r="BC87" s="63" t="str">
@@ -31824,7 +31809,7 @@
         <v>N° 87 TEREOS, distillerie de la région de Chalon</v>
       </c>
       <c r="BD87" s="18">
-        <f>RANK(BY87,$BY$2:$BY$129)+COUNTIF(BY$2:BY88,BY87)-1</f>
+        <f>RANK(BY87,$BY$2:$BY$128)+COUNTIF(BY$2:BY88,BY87)-1</f>
         <v>87</v>
       </c>
       <c r="BE87" s="63" t="str">
@@ -31996,7 +31981,7 @@
       <c r="AZ88" s="26"/>
       <c r="BA88" s="26"/>
       <c r="BB88" s="18">
-        <f>RANK(BX88,$BX$2:$BX$129)+COUNTIF(BX$2:BX89,BX88)-1</f>
+        <f>RANK(BX88,$BX$2:$BX$128)+COUNTIF(BX$2:BX89,BX88)-1</f>
         <v>88</v>
       </c>
       <c r="BC88" s="63" t="str">
@@ -32004,7 +31989,7 @@
         <v>N° 88 Brasserie d’ORVAL</v>
       </c>
       <c r="BD88" s="18">
-        <f>RANK(BY88,$BY$2:$BY$129)+COUNTIF(BY$2:BY89,BY88)-1</f>
+        <f>RANK(BY88,$BY$2:$BY$128)+COUNTIF(BY$2:BY89,BY88)-1</f>
         <v>88</v>
       </c>
       <c r="BE88" s="63" t="str">
@@ -32178,7 +32163,7 @@
         <v>399</v>
       </c>
       <c r="BB89" s="18">
-        <f>RANK(BX89,$BX$2:$BX$129)+COUNTIF(BX$2:BX90,BX89)-1</f>
+        <f>RANK(BX89,$BX$2:$BX$128)+COUNTIF(BX$2:BX90,BX89)-1</f>
         <v>89</v>
       </c>
       <c r="BC89" s="63" t="str">
@@ -32186,7 +32171,7 @@
         <v>N° 89 Charbonneaux Brabant SA</v>
       </c>
       <c r="BD89" s="18">
-        <f>RANK(BY89,$BY$2:$BY$129)+COUNTIF(BY$2:BY90,BY89)-1</f>
+        <f>RANK(BY89,$BY$2:$BY$128)+COUNTIF(BY$2:BY90,BY89)-1</f>
         <v>89</v>
       </c>
       <c r="BE89" s="63" t="str">
@@ -32353,7 +32338,7 @@
       <c r="AZ90" s="26"/>
       <c r="BA90" s="26"/>
       <c r="BB90" s="18">
-        <f>RANK(BX90,$BX$2:$BX$129)+COUNTIF(BX$2:BX91,BX90)-1</f>
+        <f>RANK(BX90,$BX$2:$BX$128)+COUNTIF(BX$2:BX91,BX90)-1</f>
         <v>90</v>
       </c>
       <c r="BC90" s="63" t="str">
@@ -32361,7 +32346,7 @@
         <v xml:space="preserve">N° 90 C.A.M.A (Chaine d'Analyses Marne Ardennes) </v>
       </c>
       <c r="BD90" s="18">
-        <f>RANK(BY90,$BY$2:$BY$129)+COUNTIF(BY$2:BY91,BY90)-1</f>
+        <f>RANK(BY90,$BY$2:$BY$128)+COUNTIF(BY$2:BY91,BY90)-1</f>
         <v>90</v>
       </c>
       <c r="BE90" s="63" t="str">
@@ -32530,7 +32515,7 @@
       <c r="AZ91" s="26"/>
       <c r="BA91" s="26"/>
       <c r="BB91" s="18">
-        <f>RANK(BX91,$BX$2:$BX$129)+COUNTIF(BX$2:BX92,BX91)-1</f>
+        <f>RANK(BX91,$BX$2:$BX$128)+COUNTIF(BX$2:BX92,BX91)-1</f>
         <v>91</v>
       </c>
       <c r="BC91" s="63" t="str">
@@ -32538,7 +32523,7 @@
         <v>N° 91 SDP</v>
       </c>
       <c r="BD91" s="18">
-        <f>RANK(BY91,$BY$2:$BY$129)+COUNTIF(BY$2:BY92,BY91)-1</f>
+        <f>RANK(BY91,$BY$2:$BY$128)+COUNTIF(BY$2:BY92,BY91)-1</f>
         <v>91</v>
       </c>
       <c r="BE91" s="63" t="str">
@@ -32711,7 +32696,7 @@
         <v>399</v>
       </c>
       <c r="BB92" s="18">
-        <f>RANK(BX92,$BX$2:$BX$129)+COUNTIF(BX$2:BX93,BX92)-1</f>
+        <f>RANK(BX92,$BX$2:$BX$128)+COUNTIF(BX$2:BX93,BX92)-1</f>
         <v>92</v>
       </c>
       <c r="BC92" s="63" t="str">
@@ -32719,7 +32704,7 @@
         <v xml:space="preserve">N° 92 Station d'épuration Reims Métropole - service SEMSI </v>
       </c>
       <c r="BD92" s="18">
-        <f>RANK(BY92,$BY$2:$BY$129)+COUNTIF(BY$2:BY93,BY92)-1</f>
+        <f>RANK(BY92,$BY$2:$BY$128)+COUNTIF(BY$2:BY93,BY92)-1</f>
         <v>92</v>
       </c>
       <c r="BE92" s="63" t="str">
@@ -32890,7 +32875,7 @@
       <c r="AZ93" s="26"/>
       <c r="BA93" s="26"/>
       <c r="BB93" s="18">
-        <f>RANK(BX93,$BX$2:$BX$129)+COUNTIF(BX$2:BX94,BX93)-1</f>
+        <f>RANK(BX93,$BX$2:$BX$128)+COUNTIF(BX$2:BX94,BX93)-1</f>
         <v>93</v>
       </c>
       <c r="BC93" s="63" t="str">
@@ -32898,7 +32883,7 @@
         <v xml:space="preserve">N° 93 STEP Mardeuil </v>
       </c>
       <c r="BD93" s="18">
-        <f>RANK(BY93,$BY$2:$BY$129)+COUNTIF(BY$2:BY94,BY93)-1</f>
+        <f>RANK(BY93,$BY$2:$BY$128)+COUNTIF(BY$2:BY94,BY93)-1</f>
         <v>93</v>
       </c>
       <c r="BE93" s="63" t="str">
@@ -33071,7 +33056,7 @@
         <v>399</v>
       </c>
       <c r="BB94" s="18">
-        <f>RANK(BX94,$BX$2:$BX$129)+COUNTIF(BX$2:BX95,BX94)-1</f>
+        <f>RANK(BX94,$BX$2:$BX$128)+COUNTIF(BX$2:BX95,BX94)-1</f>
         <v>94</v>
       </c>
       <c r="BC94" s="63" t="str">
@@ -33079,7 +33064,7 @@
         <v>N° 94 STEP Communauté de communes des Coteaux Sezannais</v>
       </c>
       <c r="BD94" s="18">
-        <f>RANK(BY94,$BY$2:$BY$129)+COUNTIF(BY$2:BY95,BY94)-1</f>
+        <f>RANK(BY94,$BY$2:$BY$128)+COUNTIF(BY$2:BY95,BY94)-1</f>
         <v>94</v>
       </c>
       <c r="BE94" s="63" t="str">
@@ -33248,7 +33233,7 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
       <c r="BB95" s="18">
-        <f>RANK(BX95,$BX$2:$BX$129)+COUNTIF(BX$2:BX96,BX95)-1</f>
+        <f>RANK(BX95,$BX$2:$BX$128)+COUNTIF(BX$2:BX96,BX95)-1</f>
         <v>95</v>
       </c>
       <c r="BC95" s="63" t="str">
@@ -33256,7 +33241,7 @@
         <v>N° 95 Arvalis - Institut Du Végétal</v>
       </c>
       <c r="BD95" s="18">
-        <f>RANK(BY95,$BY$2:$BY$129)+COUNTIF(BY$2:BY96,BY95)-1</f>
+        <f>RANK(BY95,$BY$2:$BY$128)+COUNTIF(BY$2:BY96,BY95)-1</f>
         <v>95</v>
       </c>
       <c r="BE95" s="63" t="str">
@@ -33431,7 +33416,7 @@
       </c>
       <c r="BA96" s="26"/>
       <c r="BB96" s="18">
-        <f>RANK(BX96,$BX$2:$BX$129)+COUNTIF(BX$2:BX97,BX96)-1</f>
+        <f>RANK(BX96,$BX$2:$BX$128)+COUNTIF(BX$2:BX97,BX96)-1</f>
         <v>96</v>
       </c>
       <c r="BC96" s="63" t="str">
@@ -33439,7 +33424,7 @@
         <v>N° 96 Inéris</v>
       </c>
       <c r="BD96" s="18">
-        <f>RANK(BY96,$BY$2:$BY$129)+COUNTIF(BY$2:BY97,BY96)-1</f>
+        <f>RANK(BY96,$BY$2:$BY$128)+COUNTIF(BY$2:BY97,BY96)-1</f>
         <v>96</v>
       </c>
       <c r="BE96" s="63" t="str">
@@ -33614,7 +33599,7 @@
       </c>
       <c r="BA97" s="26"/>
       <c r="BB97" s="18">
-        <f>RANK(BX97,$BX$2:$BX$129)+COUNTIF(BX$2:BX98,BX97)-1</f>
+        <f>RANK(BX97,$BX$2:$BX$128)+COUNTIF(BX$2:BX98,BX97)-1</f>
         <v>97</v>
       </c>
       <c r="BC97" s="63" t="str">
@@ -33622,7 +33607,7 @@
         <v>N° 97 ANSES (BCM-Alimentaire)</v>
       </c>
       <c r="BD97" s="18">
-        <f>RANK(BY97,$BY$2:$BY$129)+COUNTIF(BY$2:BY98,BY97)-1</f>
+        <f>RANK(BY97,$BY$2:$BY$128)+COUNTIF(BY$2:BY98,BY97)-1</f>
         <v>97</v>
       </c>
       <c r="BE97" s="63" t="str">
@@ -33793,19 +33778,19 @@
       <c r="AZ98" s="26"/>
       <c r="BA98" s="26"/>
       <c r="BB98" s="18">
-        <f>RANK(BX98,$BX$2:$BX$129)+COUNTIF(BX$2:BX99,BX98)-1</f>
+        <f>RANK(BX98,$BX$2:$BX$128)+COUNTIF(BX$2:BX99,BX98)-1</f>
         <v>98</v>
       </c>
       <c r="BC98" s="63" t="str">
-        <f t="shared" ref="BC98:BC129" si="56">"N° "&amp;BB98&amp;" "&amp;C98</f>
+        <f t="shared" ref="BC98:BC128" si="56">"N° "&amp;BB98&amp;" "&amp;C98</f>
         <v>N° 98 Ets J SOUFFLET</v>
       </c>
       <c r="BD98" s="18">
-        <f>RANK(BY98,$BY$2:$BY$129)+COUNTIF(BY$2:BY99,BY98)-1</f>
+        <f>RANK(BY98,$BY$2:$BY$128)+COUNTIF(BY$2:BY99,BY98)-1</f>
         <v>98</v>
       </c>
       <c r="BE98" s="63" t="str">
-        <f t="shared" ref="BE98:BE129" si="57">"N° "&amp;BD98&amp;" "&amp;C98</f>
+        <f t="shared" ref="BE98:BE128" si="57">"N° "&amp;BD98&amp;" "&amp;C98</f>
         <v>N° 98 Ets J SOUFFLET</v>
       </c>
       <c r="BF98" s="63"/>
@@ -33827,67 +33812,67 @@
       <c r="BV98" s="64"/>
       <c r="BW98" s="64"/>
       <c r="BX98" s="18">
-        <f t="shared" ref="BX98:BX129" si="58">((BF98+BG98)*9)+((BH98+BI98)*8)+((BJ98+BK98)*7)+((BL98+BM98)*6)+((BN98+BO98)*5)+((BP98+BQ98)*4)+((BR98+BS98)*3)+((BT98+BU98)*2)+((BV98+BW98)*1)</f>
+        <f t="shared" ref="BX98:BX128" si="58">((BF98+BG98)*9)+((BH98+BI98)*8)+((BJ98+BK98)*7)+((BL98+BM98)*6)+((BN98+BO98)*5)+((BP98+BQ98)*4)+((BR98+BS98)*3)+((BT98+BU98)*2)+((BV98+BW98)*1)</f>
         <v>0</v>
       </c>
       <c r="BY98" s="18">
-        <f t="shared" ref="BY98:BY129" si="59">((BG98)*9)+((BI98)*8)+((BK98)*7)+((BM98)*6)+((BO98)*5)+((BQ98)*4)+((BS98)*3)+((BU98)*2)+((BW98)*1)</f>
+        <f t="shared" ref="BY98:BY128" si="59">((BG98)*9)+((BI98)*8)+((BK98)*7)+((BM98)*6)+((BO98)*5)+((BQ98)*4)+((BS98)*3)+((BU98)*2)+((BW98)*1)</f>
         <v>0</v>
       </c>
       <c r="BZ98" s="1">
-        <f t="shared" ref="BZ98:BZ129" si="60">BJ98</f>
+        <f t="shared" ref="BZ98:BZ128" si="60">BJ98</f>
         <v>0</v>
       </c>
       <c r="CA98" s="1">
-        <f t="shared" ref="CA98:CA129" si="61">BL98</f>
+        <f t="shared" ref="CA98:CA128" si="61">BL98</f>
         <v>0</v>
       </c>
       <c r="CB98" s="1">
-        <f t="shared" ref="CB98:CB129" si="62">BN98</f>
+        <f t="shared" ref="CB98:CB128" si="62">BN98</f>
         <v>0</v>
       </c>
       <c r="CC98" s="1">
-        <f t="shared" ref="CC98:CC129" si="63">BP98</f>
+        <f t="shared" ref="CC98:CC128" si="63">BP98</f>
         <v>0</v>
       </c>
       <c r="CD98" s="1">
-        <f t="shared" ref="CD98:CD129" si="64">BR98</f>
+        <f t="shared" ref="CD98:CD128" si="64">BR98</f>
         <v>0</v>
       </c>
       <c r="CE98" s="1">
-        <f t="shared" ref="CE98:CE129" si="65">BT98</f>
+        <f t="shared" ref="CE98:CE128" si="65">BT98</f>
         <v>0</v>
       </c>
       <c r="CF98" s="1">
-        <f t="shared" ref="CF98:CF129" si="66">BV98</f>
+        <f t="shared" ref="CF98:CF128" si="66">BV98</f>
         <v>0</v>
       </c>
       <c r="CG98" s="1">
-        <f t="shared" ref="CG98:CG129" si="67">BK98</f>
+        <f t="shared" ref="CG98:CG128" si="67">BK98</f>
         <v>0</v>
       </c>
       <c r="CH98" s="1">
-        <f t="shared" ref="CH98:CH129" si="68">BM98</f>
+        <f t="shared" ref="CH98:CH128" si="68">BM98</f>
         <v>0</v>
       </c>
       <c r="CI98" s="1">
-        <f t="shared" ref="CI98:CI129" si="69">BO98</f>
+        <f t="shared" ref="CI98:CI128" si="69">BO98</f>
         <v>0</v>
       </c>
       <c r="CJ98" s="1">
-        <f t="shared" ref="CJ98:CJ129" si="70">BQ98</f>
+        <f t="shared" ref="CJ98:CJ128" si="70">BQ98</f>
         <v>0</v>
       </c>
       <c r="CK98" s="1">
-        <f t="shared" ref="CK98:CK129" si="71">BS98</f>
+        <f t="shared" ref="CK98:CK128" si="71">BS98</f>
         <v>0</v>
       </c>
       <c r="CL98" s="1">
-        <f t="shared" ref="CL98:CL129" si="72">BU98</f>
+        <f t="shared" ref="CL98:CL128" si="72">BU98</f>
         <v>0</v>
       </c>
       <c r="CM98" s="1">
-        <f t="shared" ref="CM98:CM129" si="73">BW98</f>
+        <f t="shared" ref="CM98:CM128" si="73">BW98</f>
         <v>0</v>
       </c>
       <c r="CN98" s="37"/>
@@ -33980,7 +33965,7 @@
         <v>399</v>
       </c>
       <c r="BB99" s="18">
-        <f>RANK(BX99,$BX$2:$BX$129)+COUNTIF(BX$2:BX100,BX99)-1</f>
+        <f>RANK(BX99,$BX$2:$BX$128)+COUNTIF(BX$2:BX100,BX99)-1</f>
         <v>99</v>
       </c>
       <c r="BC99" s="63" t="str">
@@ -33988,7 +33973,7 @@
         <v>N° 99 Chaire A.B.I.</v>
       </c>
       <c r="BD99" s="18">
-        <f>RANK(BY99,$BY$2:$BY$129)+COUNTIF(BY$2:BY100,BY99)-1</f>
+        <f>RANK(BY99,$BY$2:$BY$128)+COUNTIF(BY$2:BY100,BY99)-1</f>
         <v>99</v>
       </c>
       <c r="BE99" s="63" t="str">
@@ -34163,7 +34148,7 @@
         <v>399</v>
       </c>
       <c r="BB100" s="18">
-        <f>RANK(BX100,$BX$2:$BX$129)+COUNTIF(BX$2:BX101,BX100)-1</f>
+        <f>RANK(BX100,$BX$2:$BX$128)+COUNTIF(BX$2:BX101,BX100)-1</f>
         <v>100</v>
       </c>
       <c r="BC100" s="63" t="str">
@@ -34171,7 +34156,7 @@
         <v>N° 100 Nocibé</v>
       </c>
       <c r="BD100" s="18">
-        <f>RANK(BY100,$BY$2:$BY$129)+COUNTIF(BY$2:BY101,BY100)-1</f>
+        <f>RANK(BY100,$BY$2:$BY$128)+COUNTIF(BY$2:BY101,BY100)-1</f>
         <v>100</v>
       </c>
       <c r="BE100" s="63" t="str">
@@ -34342,7 +34327,7 @@
       <c r="AZ101" s="47"/>
       <c r="BA101" s="26"/>
       <c r="BB101" s="18">
-        <f>RANK(BX101,$BX$2:$BX$129)+COUNTIF(BX$2:BX102,BX101)-1</f>
+        <f>RANK(BX101,$BX$2:$BX$128)+COUNTIF(BX$2:BX102,BX101)-1</f>
         <v>101</v>
       </c>
       <c r="BC101" s="63" t="str">
@@ -34350,7 +34335,7 @@
         <v xml:space="preserve">N° 101 EUROP COSMETICS </v>
       </c>
       <c r="BD101" s="18">
-        <f>RANK(BY101,$BY$2:$BY$129)+COUNTIF(BY$2:BY102,BY101)-1</f>
+        <f>RANK(BY101,$BY$2:$BY$128)+COUNTIF(BY$2:BY102,BY101)-1</f>
         <v>101</v>
       </c>
       <c r="BE101" s="63" t="str">
@@ -34527,7 +34512,7 @@
         <v>399</v>
       </c>
       <c r="BB102" s="18">
-        <f>RANK(BX102,$BX$2:$BX$129)+COUNTIF(BX$2:BX103,BX102)-1</f>
+        <f>RANK(BX102,$BX$2:$BX$128)+COUNTIF(BX$2:BX103,BX102)-1</f>
         <v>102</v>
       </c>
       <c r="BC102" s="63" t="str">
@@ -34535,7 +34520,7 @@
         <v>N° 102 PARCHIMY SA</v>
       </c>
       <c r="BD102" s="18">
-        <f>RANK(BY102,$BY$2:$BY$129)+COUNTIF(BY$2:BY103,BY102)-1</f>
+        <f>RANK(BY102,$BY$2:$BY$128)+COUNTIF(BY$2:BY103,BY102)-1</f>
         <v>102</v>
       </c>
       <c r="BE102" s="63" t="str">
@@ -34702,7 +34687,7 @@
       </c>
       <c r="BA103" s="25"/>
       <c r="BB103" s="18">
-        <f>RANK(BX103,$BX$2:$BX$129)+COUNTIF(BX$2:BX104,BX103)-1</f>
+        <f>RANK(BX103,$BX$2:$BX$128)+COUNTIF(BX$2:BX104,BX103)-1</f>
         <v>103</v>
       </c>
       <c r="BC103" s="63" t="str">
@@ -34710,7 +34695,7 @@
         <v>N° 103 Beauté Recherche e tindustries - LOREAL</v>
       </c>
       <c r="BD103" s="18">
-        <f>RANK(BY103,$BY$2:$BY$129)+COUNTIF(BY$2:BY104,BY103)-1</f>
+        <f>RANK(BY103,$BY$2:$BY$128)+COUNTIF(BY$2:BY104,BY103)-1</f>
         <v>103</v>
       </c>
       <c r="BE103" s="63" t="str">
@@ -34883,7 +34868,7 @@
       </c>
       <c r="BA104" s="26"/>
       <c r="BB104" s="18">
-        <f>RANK(BX104,$BX$2:$BX$129)+COUNTIF(BX$2:BX105,BX104)-1</f>
+        <f>RANK(BX104,$BX$2:$BX$128)+COUNTIF(BX$2:BX105,BX104)-1</f>
         <v>104</v>
       </c>
       <c r="BC104" s="63" t="str">
@@ -34891,7 +34876,7 @@
         <v>N° 104 THOR PERSONAL CARE SA</v>
       </c>
       <c r="BD104" s="18">
-        <f>RANK(BY104,$BY$2:$BY$129)+COUNTIF(BY$2:BY105,BY104)-1</f>
+        <f>RANK(BY104,$BY$2:$BY$128)+COUNTIF(BY$2:BY105,BY104)-1</f>
         <v>104</v>
       </c>
       <c r="BE104" s="63" t="str">
@@ -35045,7 +35030,7 @@
       <c r="AY105" s="30"/>
       <c r="AZ105" s="59"/>
       <c r="BB105" s="18">
-        <f>RANK(BX105,$BX$2:$BX$129)+COUNTIF(BX$2:BX106,BX105)-1</f>
+        <f>RANK(BX105,$BX$2:$BX$128)+COUNTIF(BX$2:BX106,BX105)-1</f>
         <v>105</v>
       </c>
       <c r="BC105" s="63" t="str">
@@ -35053,7 +35038,7 @@
         <v>N° 105 Hélios Research center</v>
       </c>
       <c r="BD105" s="18">
-        <f>RANK(BY105,$BY$2:$BY$129)+COUNTIF(BY$2:BY106,BY105)-1</f>
+        <f>RANK(BY105,$BY$2:$BY$128)+COUNTIF(BY$2:BY106,BY105)-1</f>
         <v>105</v>
       </c>
       <c r="BE105" s="63" t="str">
@@ -35228,7 +35213,7 @@
       </c>
       <c r="BA106" s="26"/>
       <c r="BB106" s="18">
-        <f>RANK(BX106,$BX$2:$BX$129)+COUNTIF(BX$2:BX107,BX106)-1</f>
+        <f>RANK(BX106,$BX$2:$BX$128)+COUNTIF(BX$2:BX107,BX106)-1</f>
         <v>106</v>
       </c>
       <c r="BC106" s="63" t="str">
@@ -35236,7 +35221,7 @@
         <v>N° 106 Laboratoire SIRMA    CNRS 3481  - Bâtiment 18</v>
       </c>
       <c r="BD106" s="18">
-        <f>RANK(BY106,$BY$2:$BY$129)+COUNTIF(BY$2:BY107,BY106)-1</f>
+        <f>RANK(BY106,$BY$2:$BY$128)+COUNTIF(BY$2:BY107,BY106)-1</f>
         <v>106</v>
       </c>
       <c r="BE106" s="63" t="str">
@@ -35407,7 +35392,7 @@
       <c r="AZ107" s="59"/>
       <c r="BA107" s="26"/>
       <c r="BB107" s="18">
-        <f>RANK(BX107,$BX$2:$BX$129)+COUNTIF(BX$2:BX108,BX107)-1</f>
+        <f>RANK(BX107,$BX$2:$BX$128)+COUNTIF(BX$2:BX108,BX107)-1</f>
         <v>107</v>
       </c>
       <c r="BC107" s="63" t="str">
@@ -35415,7 +35400,7 @@
         <v>N° 107 Institut Jean Godinot</v>
       </c>
       <c r="BD107" s="18">
-        <f>RANK(BY107,$BY$2:$BY$129)+COUNTIF(BY$2:BY108,BY107)-1</f>
+        <f>RANK(BY107,$BY$2:$BY$128)+COUNTIF(BY$2:BY108,BY107)-1</f>
         <v>107</v>
       </c>
       <c r="BE107" s="63" t="str">
@@ -35588,7 +35573,7 @@
         <v>399</v>
       </c>
       <c r="BB108" s="18">
-        <f>RANK(BX108,$BX$2:$BX$129)+COUNTIF(BX$2:BX109,BX108)-1</f>
+        <f>RANK(BX108,$BX$2:$BX$128)+COUNTIF(BX$2:BX109,BX108)-1</f>
         <v>108</v>
       </c>
       <c r="BC108" s="63" t="str">
@@ -35596,7 +35581,7 @@
         <v>N° 108 ICMR (Institut de chimie moléculaire de Reims )- UMR CNRS 6229</v>
       </c>
       <c r="BD108" s="18">
-        <f>RANK(BY108,$BY$2:$BY$129)+COUNTIF(BY$2:BY109,BY108)-1</f>
+        <f>RANK(BY108,$BY$2:$BY$128)+COUNTIF(BY$2:BY109,BY108)-1</f>
         <v>108</v>
       </c>
       <c r="BE108" s="63" t="str">
@@ -35769,7 +35754,7 @@
       <c r="AZ109" s="23"/>
       <c r="BA109" s="25"/>
       <c r="BB109" s="18">
-        <f>RANK(BX109,$BX$2:$BX$129)+COUNTIF(BX$2:BX110,BX109)-1</f>
+        <f>RANK(BX109,$BX$2:$BX$128)+COUNTIF(BX$2:BX110,BX109)-1</f>
         <v>109</v>
       </c>
       <c r="BC109" s="63" t="str">
@@ -35777,7 +35762,7 @@
         <v>N° 109 CONFARMA France SAS</v>
       </c>
       <c r="BD109" s="18">
-        <f>RANK(BY109,$BY$2:$BY$129)+COUNTIF(BY$2:BY110,BY109)-1</f>
+        <f>RANK(BY109,$BY$2:$BY$128)+COUNTIF(BY$2:BY110,BY109)-1</f>
         <v>109</v>
       </c>
       <c r="BE109" s="63" t="str">
@@ -35948,7 +35933,7 @@
       <c r="AZ110" s="26"/>
       <c r="BA110" s="26"/>
       <c r="BB110" s="18">
-        <f>RANK(BX110,$BX$2:$BX$129)+COUNTIF(BX$2:BX111,BX110)-1</f>
+        <f>RANK(BX110,$BX$2:$BX$128)+COUNTIF(BX$2:BX111,BX110)-1</f>
         <v>110</v>
       </c>
       <c r="BC110" s="63" t="str">
@@ -35956,7 +35941,7 @@
         <v>N° 110 Sa ALK Abello</v>
       </c>
       <c r="BD110" s="18">
-        <f>RANK(BY110,$BY$2:$BY$129)+COUNTIF(BY$2:BY111,BY110)-1</f>
+        <f>RANK(BY110,$BY$2:$BY$128)+COUNTIF(BY$2:BY111,BY110)-1</f>
         <v>110</v>
       </c>
       <c r="BE110" s="63" t="str">
@@ -36123,7 +36108,7 @@
       <c r="AZ111" s="26"/>
       <c r="BA111" s="26"/>
       <c r="BB111" s="18">
-        <f>RANK(BX111,$BX$2:$BX$129)+COUNTIF(BX$2:BX112,BX111)-1</f>
+        <f>RANK(BX111,$BX$2:$BX$128)+COUNTIF(BX$2:BX112,BX111)-1</f>
         <v>111</v>
       </c>
       <c r="BC111" s="63" t="str">
@@ -36131,7 +36116,7 @@
         <v>N° 111 Metanoia</v>
       </c>
       <c r="BD111" s="18">
-        <f>RANK(BY111,$BY$2:$BY$129)+COUNTIF(BY$2:BY112,BY111)-1</f>
+        <f>RANK(BY111,$BY$2:$BY$128)+COUNTIF(BY$2:BY112,BY111)-1</f>
         <v>111</v>
       </c>
       <c r="BE111" s="63" t="str">
@@ -36300,7 +36285,7 @@
       <c r="AZ112" s="33"/>
       <c r="BA112" s="33"/>
       <c r="BB112" s="18">
-        <f>RANK(BX112,$BX$2:$BX$129)+COUNTIF(BX$2:BX113,BX112)-1</f>
+        <f>RANK(BX112,$BX$2:$BX$128)+COUNTIF(BX$2:BX113,BX112)-1</f>
         <v>112</v>
       </c>
       <c r="BC112" s="63" t="str">
@@ -36308,7 +36293,7 @@
         <v>N° 112 LU BISCUIT</v>
       </c>
       <c r="BD112" s="18">
-        <f>RANK(BY112,$BY$2:$BY$129)+COUNTIF(BY$2:BY113,BY112)-1</f>
+        <f>RANK(BY112,$BY$2:$BY$128)+COUNTIF(BY$2:BY113,BY112)-1</f>
         <v>112</v>
       </c>
       <c r="BE112" s="63" t="str">
@@ -36399,7 +36384,7 @@
       </c>
       <c r="CN112" s="91"/>
     </row>
-    <row r="113" spans="1:92" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:93" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>232</v>
       </c>
@@ -36479,7 +36464,7 @@
       </c>
       <c r="BA113" s="26"/>
       <c r="BB113" s="18">
-        <f>RANK(BX113,$BX$2:$BX$129)+COUNTIF(BX$2:BX114,BX113)-1</f>
+        <f>RANK(BX113,$BX$2:$BX$128)+COUNTIF(BX$2:BX114,BX113)-1</f>
         <v>113</v>
       </c>
       <c r="BC113" s="63" t="str">
@@ -36487,7 +36472,7 @@
         <v>N° 113 COLGATE PALMOLIVE industriel</v>
       </c>
       <c r="BD113" s="18">
-        <f>RANK(BY113,$BY$2:$BY$129)+COUNTIF(BY$2:BY114,BY113)-1</f>
+        <f>RANK(BY113,$BY$2:$BY$128)+COUNTIF(BY$2:BY114,BY113)-1</f>
         <v>113</v>
       </c>
       <c r="BE113" s="63" t="str">
@@ -36578,7 +36563,7 @@
       </c>
       <c r="CN113" s="37"/>
     </row>
-    <row r="114" spans="1:92" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:93" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>232</v>
       </c>
@@ -36656,7 +36641,7 @@
       <c r="AZ114" s="26"/>
       <c r="BA114" s="26"/>
       <c r="BB114" s="18">
-        <f>RANK(BX114,$BX$2:$BX$129)+COUNTIF(BX$2:BX115,BX114)-1</f>
+        <f>RANK(BX114,$BX$2:$BX$128)+COUNTIF(BX$2:BX115,BX114)-1</f>
         <v>114</v>
       </c>
       <c r="BC114" s="63" t="str">
@@ -36664,7 +36649,7 @@
         <v>N° 114 LABOSPHERE</v>
       </c>
       <c r="BD114" s="18">
-        <f>RANK(BY114,$BY$2:$BY$129)+COUNTIF(BY$2:BY115,BY114)-1</f>
+        <f>RANK(BY114,$BY$2:$BY$128)+COUNTIF(BY$2:BY115,BY114)-1</f>
         <v>114</v>
       </c>
       <c r="BE114" s="63" t="str">
@@ -36755,7 +36740,7 @@
       </c>
       <c r="CN114" s="37"/>
     </row>
-    <row r="115" spans="1:92" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:93" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>232</v>
       </c>
@@ -36833,7 +36818,7 @@
       </c>
       <c r="BA115" s="26"/>
       <c r="BB115" s="18">
-        <f>RANK(BX115,$BX$2:$BX$129)+COUNTIF(BX$2:BX116,BX115)-1</f>
+        <f>RANK(BX115,$BX$2:$BX$128)+COUNTIF(BX$2:BX116,BX115)-1</f>
         <v>115</v>
       </c>
       <c r="BC115" s="63" t="str">
@@ -36841,7 +36826,7 @@
         <v>N° 115 Laboratoire JNS LABS</v>
       </c>
       <c r="BD115" s="18">
-        <f>RANK(BY115,$BY$2:$BY$129)+COUNTIF(BY$2:BY116,BY115)-1</f>
+        <f>RANK(BY115,$BY$2:$BY$128)+COUNTIF(BY$2:BY116,BY115)-1</f>
         <v>115</v>
       </c>
       <c r="BE115" s="63" t="str">
@@ -36932,7 +36917,7 @@
       </c>
       <c r="CN115" s="37"/>
     </row>
-    <row r="116" spans="1:92" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:93" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>232</v>
       </c>
@@ -37010,7 +36995,7 @@
       <c r="AZ116" s="26"/>
       <c r="BA116" s="26"/>
       <c r="BB116" s="18">
-        <f>RANK(BX116,$BX$2:$BX$129)+COUNTIF(BX$2:BX117,BX116)-1</f>
+        <f>RANK(BX116,$BX$2:$BX$128)+COUNTIF(BX$2:BX117,BX116)-1</f>
         <v>116</v>
       </c>
       <c r="BC116" s="63" t="str">
@@ -37018,7 +37003,7 @@
         <v>N° 116 BRENNTAG S. A. - Ardennes</v>
       </c>
       <c r="BD116" s="18">
-        <f>RANK(BY116,$BY$2:$BY$129)+COUNTIF(BY$2:BY117,BY116)-1</f>
+        <f>RANK(BY116,$BY$2:$BY$128)+COUNTIF(BY$2:BY117,BY116)-1</f>
         <v>116</v>
       </c>
       <c r="BE116" s="63" t="str">
@@ -37109,7 +37094,7 @@
       </c>
       <c r="CN116" s="37"/>
     </row>
-    <row r="117" spans="1:92" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:93" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>339</v>
       </c>
@@ -37187,7 +37172,7 @@
       <c r="AZ117" s="26"/>
       <c r="BA117" s="26"/>
       <c r="BB117" s="18">
-        <f>RANK(BX117,$BX$2:$BX$129)+COUNTIF(BX$2:BX118,BX117)-1</f>
+        <f>RANK(BX117,$BX$2:$BX$128)+COUNTIF(BX$2:BX118,BX117)-1</f>
         <v>117</v>
       </c>
       <c r="BC117" s="63" t="str">
@@ -37195,7 +37180,7 @@
         <v>N° 117 Merck Médication Familiale</v>
       </c>
       <c r="BD117" s="18">
-        <f>RANK(BY117,$BY$2:$BY$129)+COUNTIF(BY$2:BY118,BY117)-1</f>
+        <f>RANK(BY117,$BY$2:$BY$128)+COUNTIF(BY$2:BY118,BY117)-1</f>
         <v>117</v>
       </c>
       <c r="BE117" s="63" t="str">
@@ -37286,7 +37271,7 @@
       </c>
       <c r="CN117" s="37"/>
     </row>
-    <row r="118" spans="1:92" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:93" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>339</v>
       </c>
@@ -37366,7 +37351,7 @@
       <c r="AZ118" s="26"/>
       <c r="BA118" s="26"/>
       <c r="BB118" s="18">
-        <f>RANK(BX118,$BX$2:$BX$129)+COUNTIF(BX$2:BX119,BX118)-1</f>
+        <f>RANK(BX118,$BX$2:$BX$128)+COUNTIF(BX$2:BX119,BX118)-1</f>
         <v>118</v>
       </c>
       <c r="BC118" s="63" t="str">
@@ -37374,7 +37359,7 @@
         <v>N° 118 Sanofi - aventis</v>
       </c>
       <c r="BD118" s="18">
-        <f>RANK(BY118,$BY$2:$BY$129)+COUNTIF(BY$2:BY119,BY118)-1</f>
+        <f>RANK(BY118,$BY$2:$BY$128)+COUNTIF(BY$2:BY119,BY118)-1</f>
         <v>118</v>
       </c>
       <c r="BE118" s="63" t="str">
@@ -37465,7 +37450,7 @@
       </c>
       <c r="CN118" s="37"/>
     </row>
-    <row r="119" spans="1:92" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:93" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>339</v>
       </c>
@@ -37543,7 +37528,7 @@
       <c r="AZ119" s="26"/>
       <c r="BA119" s="26"/>
       <c r="BB119" s="18">
-        <f>RANK(BX119,$BX$2:$BX$129)+COUNTIF(BX$2:BX120,BX119)-1</f>
+        <f>RANK(BX119,$BX$2:$BX$128)+COUNTIF(BX$2:BX120,BX119)-1</f>
         <v>119</v>
       </c>
       <c r="BC119" s="63" t="str">
@@ -37551,7 +37536,7 @@
         <v>N° 119 Laboratoire BIOCODEX</v>
       </c>
       <c r="BD119" s="18">
-        <f>RANK(BY119,$BY$2:$BY$129)+COUNTIF(BY$2:BY120,BY119)-1</f>
+        <f>RANK(BY119,$BY$2:$BY$128)+COUNTIF(BY$2:BY120,BY119)-1</f>
         <v>119</v>
       </c>
       <c r="BE119" s="63" t="str">
@@ -37642,7 +37627,7 @@
       </c>
       <c r="CN119" s="37"/>
     </row>
-    <row r="120" spans="1:92" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:93" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>339</v>
       </c>
@@ -37720,7 +37705,7 @@
       <c r="AZ120" s="26"/>
       <c r="BA120" s="26"/>
       <c r="BB120" s="18">
-        <f>RANK(BX120,$BX$2:$BX$129)+COUNTIF(BX$2:BX121,BX120)-1</f>
+        <f>RANK(BX120,$BX$2:$BX$128)+COUNTIF(BX$2:BX121,BX120)-1</f>
         <v>120</v>
       </c>
       <c r="BC120" s="63" t="str">
@@ -37728,7 +37713,7 @@
         <v>N° 120 BIOCODEX SA</v>
       </c>
       <c r="BD120" s="18">
-        <f>RANK(BY120,$BY$2:$BY$129)+COUNTIF(BY$2:BY121,BY120)-1</f>
+        <f>RANK(BY120,$BY$2:$BY$128)+COUNTIF(BY$2:BY121,BY120)-1</f>
         <v>120</v>
       </c>
       <c r="BE120" s="63" t="str">
@@ -37819,7 +37804,7 @@
       </c>
       <c r="CN120" s="37"/>
     </row>
-    <row r="121" spans="1:92" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:93" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>339</v>
       </c>
@@ -37897,7 +37882,7 @@
       <c r="AZ121" s="26"/>
       <c r="BA121" s="26"/>
       <c r="BB121" s="18">
-        <f>RANK(BX121,$BX$2:$BX$129)+COUNTIF(BX$2:BX122,BX121)-1</f>
+        <f>RANK(BX121,$BX$2:$BX$128)+COUNTIF(BX$2:BX122,BX121)-1</f>
         <v>121</v>
       </c>
       <c r="BC121" s="63" t="str">
@@ -37905,7 +37890,7 @@
         <v>N° 121 Toda pharma</v>
       </c>
       <c r="BD121" s="18">
-        <f>RANK(BY121,$BY$2:$BY$129)+COUNTIF(BY$2:BY122,BY121)-1</f>
+        <f>RANK(BY121,$BY$2:$BY$128)+COUNTIF(BY$2:BY122,BY121)-1</f>
         <v>121</v>
       </c>
       <c r="BE121" s="63" t="str">
@@ -37996,7 +37981,7 @@
       </c>
       <c r="CN121" s="37"/>
     </row>
-    <row r="122" spans="1:92" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:93" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A122" s="79" t="s">
         <v>339</v>
       </c>
@@ -38074,7 +38059,7 @@
       <c r="AZ122" s="71"/>
       <c r="BA122" s="71"/>
       <c r="BB122" s="18">
-        <f>RANK(BX122,$BX$2:$BX$129)+COUNTIF(BX$2:BX123,BX122)-1</f>
+        <f>RANK(BX122,$BX$2:$BX$128)+COUNTIF(BX$2:BX123,BX122)-1</f>
         <v>122</v>
       </c>
       <c r="BC122" s="63" t="str">
@@ -38082,7 +38067,7 @@
         <v>N° 122 Recipharm Fontaine</v>
       </c>
       <c r="BD122" s="18">
-        <f>RANK(BY122,$BY$2:$BY$129)+COUNTIF(BY$2:BY123,BY122)-1</f>
+        <f>RANK(BY122,$BY$2:$BY$128)+COUNTIF(BY$2:BY123,BY122)-1</f>
         <v>122</v>
       </c>
       <c r="BE122" s="63" t="str">
@@ -38163,7 +38148,7 @@
       </c>
       <c r="CN122" s="7"/>
     </row>
-    <row r="123" spans="1:92" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:93" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="99" t="s">
         <v>339</v>
       </c>
@@ -38241,7 +38226,7 @@
       <c r="AZ123" s="7"/>
       <c r="BA123" s="7"/>
       <c r="BB123" s="18">
-        <f>RANK(BX123,$BX$2:$BX$129)+COUNTIF(BX$2:BX124,BX123)-1</f>
+        <f>RANK(BX123,$BX$2:$BX$128)+COUNTIF(BX$2:BX124,BX123)-1</f>
         <v>123</v>
       </c>
       <c r="BC123" s="63" t="str">
@@ -38249,7 +38234,7 @@
         <v>N° 123 Delpharm Dijon</v>
       </c>
       <c r="BD123" s="18">
-        <f>RANK(BY123,$BY$2:$BY$129)+COUNTIF(BY$2:BY124,BY123)-1</f>
+        <f>RANK(BY123,$BY$2:$BY$128)+COUNTIF(BY$2:BY124,BY123)-1</f>
         <v>123</v>
       </c>
       <c r="BE123" s="63" t="str">
@@ -38330,7 +38315,7 @@
       </c>
       <c r="CN123" s="7"/>
     </row>
-    <row r="124" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="99" t="s">
         <v>339</v>
       </c>
@@ -38406,7 +38391,7 @@
       <c r="AZ124" s="7"/>
       <c r="BA124" s="7"/>
       <c r="BB124" s="18">
-        <f>RANK(BX124,$BX$2:$BX$129)+COUNTIF(BX$2:BX125,BX124)-1</f>
+        <f>RANK(BX124,$BX$2:$BX$128)+COUNTIF(BX$2:BX125,BX124)-1</f>
         <v>124</v>
       </c>
       <c r="BC124" s="63" t="str">
@@ -38414,7 +38399,7 @@
         <v>N° 124 Pharmimage</v>
       </c>
       <c r="BD124" s="18">
-        <f>RANK(BY124,$BY$2:$BY$129)+COUNTIF(BY$2:BY125,BY124)-1</f>
+        <f>RANK(BY124,$BY$2:$BY$128)+COUNTIF(BY$2:BY125,BY124)-1</f>
         <v>124</v>
       </c>
       <c r="BE124" s="63" t="str">
@@ -38495,7 +38480,7 @@
       </c>
       <c r="CN124" s="7"/>
     </row>
-    <row r="125" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:93" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
         <v>339</v>
       </c>
@@ -38573,7 +38558,7 @@
       <c r="AZ125" s="7"/>
       <c r="BA125" s="7"/>
       <c r="BB125" s="18">
-        <f>RANK(BX125,$BX$2:$BX$129)+COUNTIF(BX$2:BX126,BX125)-1</f>
+        <f>RANK(BX125,$BX$2:$BX$128)+COUNTIF(BX$2:BX126,BX125)-1</f>
         <v>125</v>
       </c>
       <c r="BC125" s="63" t="str">
@@ -38581,7 +38566,7 @@
         <v>N° 125 Adhexpharma</v>
       </c>
       <c r="BD125" s="18">
-        <f>RANK(BY125,$BY$2:$BY$129)+COUNTIF(BY$2:BY126,BY125)-1</f>
+        <f>RANK(BY125,$BY$2:$BY$128)+COUNTIF(BY$2:BY126,BY125)-1</f>
         <v>125</v>
       </c>
       <c r="BE125" s="63" t="str">
@@ -38662,7 +38647,7 @@
       </c>
       <c r="CN125" s="7"/>
     </row>
-    <row r="126" spans="1:92" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:93" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="99" t="s">
         <v>339</v>
       </c>
@@ -38740,7 +38725,7 @@
       <c r="AZ126" s="7"/>
       <c r="BA126" s="7"/>
       <c r="BB126" s="18">
-        <f>RANK(BX126,$BX$2:$BX$129)+COUNTIF(BX$2:BX127,BX126)-1</f>
+        <f>RANK(BX126,$BX$2:$BX$128)+COUNTIF(BX$2:BX127,BX126)-1</f>
         <v>126</v>
       </c>
       <c r="BC126" s="63" t="str">
@@ -38748,7 +38733,7 @@
         <v>N° 126 SPPH (Groupe Fareva)</v>
       </c>
       <c r="BD126" s="18">
-        <f>RANK(BY126,$BY$2:$BY$129)+COUNTIF(BY$2:BY127,BY126)-1</f>
+        <f>RANK(BY126,$BY$2:$BY$128)+COUNTIF(BY$2:BY127,BY126)-1</f>
         <v>126</v>
       </c>
       <c r="BE126" s="63" t="str">
@@ -38839,7 +38824,7 @@
       </c>
       <c r="CN126" s="7"/>
     </row>
-    <row r="127" spans="1:92" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:93" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="112" t="s">
         <v>984</v>
       </c>
@@ -38922,20 +38907,20 @@
       <c r="AZ127" s="2"/>
       <c r="BA127" s="2"/>
       <c r="BB127" s="18">
-        <f>RANK(BX127,$BX$2:$BX$129)+COUNTIF(BX$2:BX130,BX127)-1</f>
-        <v>128</v>
+        <f>RANK(BX127,$BX$2:$BX$128)+COUNTIF(BX$2:BX129,BX127)-1</f>
+        <v>127</v>
       </c>
       <c r="BC127" s="63" t="str">
         <f t="shared" si="56"/>
-        <v>N° 128 COVENTYA</v>
+        <v>N° 127 COVENTYA</v>
       </c>
       <c r="BD127" s="18">
-        <f>RANK(BY127,$BY$2:$BY$129)+COUNTIF(BY$2:BY130,BY127)-1</f>
-        <v>128</v>
+        <f>RANK(BY127,$BY$2:$BY$128)+COUNTIF(BY$2:BY129,BY127)-1</f>
+        <v>127</v>
       </c>
       <c r="BE127" s="63" t="str">
         <f t="shared" si="57"/>
-        <v>N° 128 COVENTYA</v>
+        <v>N° 127 COVENTYA</v>
       </c>
       <c r="BF127" s="63"/>
       <c r="BG127" s="63"/>
@@ -39021,94 +39006,105 @@
       </c>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="1:92" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="166" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C128" s="96" t="s">
-        <v>1369</v>
+    <row r="128" spans="1:93" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="99" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B128" s="99" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C128" s="100" t="s">
+        <v>1098</v>
       </c>
       <c r="D128" s="97" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E128" s="121"/>
-      <c r="F128" s="102"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="97"/>
       <c r="G128" s="97"/>
       <c r="H128" s="97"/>
-      <c r="I128" s="121"/>
-      <c r="J128" s="102"/>
+      <c r="I128" s="97"/>
+      <c r="J128" s="97"/>
       <c r="K128" s="97"/>
       <c r="L128" s="97"/>
-      <c r="M128" s="121"/>
-      <c r="N128" s="121"/>
-      <c r="O128" s="121"/>
-      <c r="P128" s="121"/>
-      <c r="Q128" s="121"/>
-      <c r="R128" s="121"/>
-      <c r="S128" s="121"/>
-      <c r="T128" s="121"/>
-      <c r="V128" s="111"/>
-      <c r="X128" s="120"/>
-      <c r="Z128" s="120"/>
-      <c r="AA128" s="120"/>
-      <c r="AB128" s="120"/>
-      <c r="AC128" s="120"/>
-      <c r="AF128" s="120"/>
-      <c r="AG128" s="120"/>
-      <c r="AH128" s="120"/>
-      <c r="AI128" s="120"/>
-      <c r="AJ128" s="120"/>
-      <c r="AN128" s="120"/>
-      <c r="AO128" s="111"/>
-      <c r="AQ128" s="114"/>
-      <c r="AR128" s="105"/>
-      <c r="AS128" s="106"/>
-      <c r="AT128" s="106"/>
+      <c r="M128" s="63"/>
+      <c r="N128" s="63"/>
+      <c r="O128" s="63"/>
+      <c r="P128" s="63"/>
+      <c r="Q128" s="100"/>
+      <c r="R128" s="100"/>
+      <c r="S128" s="100"/>
+      <c r="T128" s="63"/>
+      <c r="U128" s="100"/>
+      <c r="V128" s="100"/>
+      <c r="W128" s="100"/>
+      <c r="X128" s="102"/>
+      <c r="Y128" s="100"/>
+      <c r="Z128" s="102"/>
+      <c r="AA128" s="102"/>
+      <c r="AB128" s="102"/>
+      <c r="AC128" s="100"/>
+      <c r="AD128" s="100"/>
+      <c r="AE128" s="100"/>
+      <c r="AF128" s="102"/>
+      <c r="AG128" s="102"/>
+      <c r="AH128" s="100"/>
+      <c r="AI128" s="100"/>
+      <c r="AJ128" s="102"/>
+      <c r="AK128" s="100"/>
+      <c r="AL128" s="100"/>
+      <c r="AM128" s="100"/>
+      <c r="AN128" s="102"/>
+      <c r="AO128" s="100" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AP128" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ128" s="104">
+        <v>51100</v>
+      </c>
+      <c r="AR128" s="161" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AS128" s="107" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AT128" s="162" t="s">
+        <v>1103</v>
+      </c>
       <c r="AU128" s="107"/>
-      <c r="AV128" s="164"/>
-      <c r="AW128" s="120"/>
-      <c r="AX128" s="167"/>
-      <c r="AY128" s="120"/>
-      <c r="AZ128" s="120"/>
-      <c r="BA128" s="120"/>
+      <c r="AV128" s="108"/>
+      <c r="AW128" s="121"/>
+      <c r="AX128" s="102"/>
+      <c r="AY128" s="121"/>
+      <c r="AZ128" s="121"/>
+      <c r="BA128" s="121"/>
       <c r="BB128" s="18">
-        <f>RANK(BX128,$BX$2:$BX$129)+COUNTIF(BX$2:BX130,BX128)-1</f>
-        <v>128</v>
+        <f>RANK(BX128,$BX$2:$BX$128)+COUNTIF(BX$2:BX129,BX128)-1</f>
+        <v>127</v>
       </c>
       <c r="BC128" s="63" t="str">
         <f t="shared" si="56"/>
-        <v>N° 128 Nestlé</v>
+        <v>N° 127 Lycée Technologique Hugues Libergier</v>
       </c>
       <c r="BD128" s="18">
-        <f>RANK(BY128,$BY$2:$BY$129)+COUNTIF(BY$2:BY130,BY128)-1</f>
-        <v>128</v>
+        <f>RANK(BY128,$BY$2:$BY$128)+COUNTIF(BY$2:BY129,BY128)-1</f>
+        <v>127</v>
       </c>
       <c r="BE128" s="63" t="str">
         <f t="shared" si="57"/>
-        <v>N° 128 Nestlé</v>
+        <v>N° 127 Lycée Technologique Hugues Libergier</v>
       </c>
       <c r="BF128" s="63"/>
       <c r="BG128" s="63"/>
       <c r="BH128" s="63"/>
       <c r="BI128" s="63"/>
-      <c r="BJ128" s="121"/>
-      <c r="BK128" s="121"/>
-      <c r="BL128" s="121"/>
-      <c r="BM128" s="121"/>
-      <c r="BN128" s="64"/>
-      <c r="BO128" s="64"/>
-      <c r="BP128" s="64"/>
-      <c r="BQ128" s="64"/>
-      <c r="BR128" s="64"/>
-      <c r="BS128" s="64"/>
-      <c r="BT128" s="64"/>
-      <c r="BU128" s="64"/>
-      <c r="BV128" s="64"/>
-      <c r="BW128" s="64"/>
+      <c r="BJ128" s="63"/>
+      <c r="BK128" s="63"/>
+      <c r="BL128" s="63"/>
+      <c r="BM128" s="63"/>
       <c r="BX128" s="18">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -39173,174 +39169,56 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CN128" s="120"/>
+      <c r="CO128" s="96"/>
     </row>
-    <row r="129" spans="1:93" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B129" s="99" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C129" s="100" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D129" s="97" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="E129" s="97"/>
-      <c r="F129" s="97"/>
-      <c r="G129" s="97"/>
-      <c r="H129" s="97"/>
-      <c r="I129" s="97"/>
-      <c r="J129" s="97"/>
-      <c r="K129" s="97"/>
-      <c r="L129" s="97"/>
-      <c r="M129" s="63"/>
-      <c r="N129" s="63"/>
-      <c r="O129" s="63"/>
-      <c r="P129" s="63"/>
-      <c r="Q129" s="100"/>
-      <c r="R129" s="100"/>
-      <c r="S129" s="100"/>
-      <c r="T129" s="63"/>
-      <c r="U129" s="100"/>
-      <c r="V129" s="100"/>
-      <c r="W129" s="100"/>
-      <c r="X129" s="102"/>
-      <c r="Y129" s="100"/>
-      <c r="Z129" s="102"/>
-      <c r="AA129" s="102"/>
-      <c r="AB129" s="102"/>
-      <c r="AC129" s="100"/>
-      <c r="AD129" s="100"/>
-      <c r="AE129" s="100"/>
-      <c r="AF129" s="102"/>
-      <c r="AG129" s="102"/>
-      <c r="AH129" s="100"/>
-      <c r="AI129" s="100"/>
-      <c r="AJ129" s="102"/>
-      <c r="AK129" s="100"/>
-      <c r="AL129" s="100"/>
-      <c r="AM129" s="100"/>
-      <c r="AN129" s="102"/>
-      <c r="AO129" s="100" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AP129" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ129" s="104">
-        <v>51100</v>
-      </c>
-      <c r="AR129" s="161" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AS129" s="107" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AT129" s="162" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AU129" s="107"/>
-      <c r="AV129" s="108"/>
-      <c r="AW129" s="121"/>
-      <c r="AX129" s="102"/>
-      <c r="AY129" s="121"/>
-      <c r="AZ129" s="121"/>
-      <c r="BA129" s="121"/>
-      <c r="BB129" s="18">
-        <f>RANK(BX129,$BX$2:$BX$129)+COUNTIF(BX$2:BX130,BX129)-1</f>
-        <v>128</v>
-      </c>
-      <c r="BC129" s="63" t="str">
-        <f t="shared" si="56"/>
-        <v>N° 128 Lycée Technologique Hugues Libergier</v>
-      </c>
-      <c r="BD129" s="18">
-        <f>RANK(BY129,$BY$2:$BY$129)+COUNTIF(BY$2:BY130,BY129)-1</f>
-        <v>128</v>
-      </c>
-      <c r="BE129" s="63" t="str">
-        <f t="shared" si="57"/>
-        <v>N° 128 Lycée Technologique Hugues Libergier</v>
-      </c>
-      <c r="BF129" s="63"/>
-      <c r="BG129" s="63"/>
-      <c r="BH129" s="63"/>
-      <c r="BI129" s="63"/>
-      <c r="BJ129" s="63"/>
-      <c r="BK129" s="63"/>
-      <c r="BL129" s="63"/>
-      <c r="BM129" s="63"/>
-      <c r="BX129" s="18">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BY129" s="18">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BZ129" s="1">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="CA129" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="CB129" s="1">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="CC129" s="1">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="CD129" s="1">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="CE129" s="1">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="CF129" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="CG129" s="1">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="CH129" s="1">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="CI129" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="CJ129" s="1">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="CK129" s="1">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="CL129" s="1">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="CM129" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="CO129" s="96"/>
+    <row r="129" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D129" s="121"/>
+      <c r="E129" s="121"/>
+      <c r="F129" s="121"/>
+      <c r="G129" s="121"/>
+      <c r="H129" s="121"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="121"/>
+      <c r="K129" s="121"/>
+      <c r="L129" s="121"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+      <c r="BB129" s="7"/>
+      <c r="BC129" s="7"/>
+      <c r="BD129" s="7"/>
+      <c r="BE129" s="7"/>
+      <c r="BF129" s="7"/>
+      <c r="BG129" s="7"/>
+      <c r="BH129" s="7"/>
+      <c r="BI129" s="7"/>
+      <c r="BJ129" s="7"/>
+      <c r="BK129" s="7"/>
+      <c r="BL129" s="7"/>
+      <c r="BM129" s="7"/>
+      <c r="BX129" s="7"/>
+      <c r="BY129" s="7"/>
+      <c r="BZ129" s="7"/>
+      <c r="CA129" s="7"/>
+      <c r="CB129" s="7"/>
+      <c r="CC129" s="7"/>
+      <c r="CD129" s="7"/>
+      <c r="CE129" s="7"/>
+      <c r="CF129" s="7"/>
+      <c r="CG129" s="7"/>
+      <c r="CH129" s="7"/>
+      <c r="CI129" s="7"/>
+      <c r="CJ129" s="7"/>
+      <c r="CK129" s="7"/>
+      <c r="CL129" s="7"/>
+      <c r="CM129" s="7"/>
     </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D130" s="121"/>
       <c r="E130" s="121"/>
       <c r="F130" s="121"/>
@@ -39387,7 +39265,7 @@
       <c r="CL130" s="7"/>
       <c r="CM130" s="7"/>
     </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D131" s="121"/>
       <c r="E131" s="121"/>
       <c r="F131" s="121"/>
@@ -39434,7 +39312,7 @@
       <c r="CL131" s="7"/>
       <c r="CM131" s="7"/>
     </row>
-    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D132" s="121"/>
       <c r="E132" s="121"/>
       <c r="F132" s="121"/>
@@ -39481,7 +39359,7 @@
       <c r="CL132" s="7"/>
       <c r="CM132" s="7"/>
     </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D133" s="121"/>
       <c r="E133" s="121"/>
       <c r="F133" s="121"/>
@@ -39528,7 +39406,7 @@
       <c r="CL133" s="7"/>
       <c r="CM133" s="7"/>
     </row>
-    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D134" s="121"/>
       <c r="E134" s="121"/>
       <c r="F134" s="121"/>
@@ -39575,7 +39453,7 @@
       <c r="CL134" s="7"/>
       <c r="CM134" s="7"/>
     </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D135" s="121"/>
       <c r="E135" s="121"/>
       <c r="F135" s="121"/>
@@ -39622,7 +39500,7 @@
       <c r="CL135" s="7"/>
       <c r="CM135" s="7"/>
     </row>
-    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D136" s="121"/>
       <c r="E136" s="121"/>
       <c r="F136" s="121"/>
@@ -39669,7 +39547,7 @@
       <c r="CL136" s="7"/>
       <c r="CM136" s="7"/>
     </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D137" s="121"/>
       <c r="E137" s="121"/>
       <c r="F137" s="121"/>
@@ -39716,7 +39594,7 @@
       <c r="CL137" s="7"/>
       <c r="CM137" s="7"/>
     </row>
-    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D138" s="121"/>
       <c r="E138" s="121"/>
       <c r="F138" s="121"/>
@@ -39763,7 +39641,7 @@
       <c r="CL138" s="7"/>
       <c r="CM138" s="7"/>
     </row>
-    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D139" s="121"/>
       <c r="E139" s="121"/>
       <c r="F139" s="121"/>
@@ -39810,7 +39688,7 @@
       <c r="CL139" s="7"/>
       <c r="CM139" s="7"/>
     </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D140" s="121"/>
       <c r="E140" s="121"/>
       <c r="F140" s="121"/>
@@ -39857,7 +39735,7 @@
       <c r="CL140" s="7"/>
       <c r="CM140" s="7"/>
     </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D141" s="121"/>
       <c r="E141" s="121"/>
       <c r="F141" s="121"/>
@@ -39904,7 +39782,7 @@
       <c r="CL141" s="7"/>
       <c r="CM141" s="7"/>
     </row>
-    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D142" s="121"/>
       <c r="E142" s="121"/>
       <c r="F142" s="121"/>
@@ -39951,7 +39829,7 @@
       <c r="CL142" s="7"/>
       <c r="CM142" s="7"/>
     </row>
-    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D143" s="121"/>
       <c r="E143" s="121"/>
       <c r="F143" s="121"/>
@@ -39998,7 +39876,7 @@
       <c r="CL143" s="7"/>
       <c r="CM143" s="7"/>
     </row>
-    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D144" s="121"/>
       <c r="E144" s="121"/>
       <c r="F144" s="121"/>
@@ -46108,53 +45986,6 @@
       <c r="CL273" s="7"/>
       <c r="CM273" s="7"/>
     </row>
-    <row r="274" spans="4:91" x14ac:dyDescent="0.25">
-      <c r="D274" s="121"/>
-      <c r="E274" s="121"/>
-      <c r="F274" s="121"/>
-      <c r="G274" s="121"/>
-      <c r="H274" s="121"/>
-      <c r="I274" s="121"/>
-      <c r="J274" s="121"/>
-      <c r="K274" s="121"/>
-      <c r="L274" s="121"/>
-      <c r="M274" s="7"/>
-      <c r="N274" s="7"/>
-      <c r="O274" s="7"/>
-      <c r="P274" s="7"/>
-      <c r="Q274" s="7"/>
-      <c r="R274" s="7"/>
-      <c r="S274" s="7"/>
-      <c r="T274" s="7"/>
-      <c r="BB274" s="7"/>
-      <c r="BC274" s="7"/>
-      <c r="BD274" s="7"/>
-      <c r="BE274" s="7"/>
-      <c r="BF274" s="7"/>
-      <c r="BG274" s="7"/>
-      <c r="BH274" s="7"/>
-      <c r="BI274" s="7"/>
-      <c r="BJ274" s="7"/>
-      <c r="BK274" s="7"/>
-      <c r="BL274" s="7"/>
-      <c r="BM274" s="7"/>
-      <c r="BX274" s="7"/>
-      <c r="BY274" s="7"/>
-      <c r="BZ274" s="7"/>
-      <c r="CA274" s="7"/>
-      <c r="CB274" s="7"/>
-      <c r="CC274" s="7"/>
-      <c r="CD274" s="7"/>
-      <c r="CE274" s="7"/>
-      <c r="CF274" s="7"/>
-      <c r="CG274" s="7"/>
-      <c r="CH274" s="7"/>
-      <c r="CI274" s="7"/>
-      <c r="CJ274" s="7"/>
-      <c r="CK274" s="7"/>
-      <c r="CL274" s="7"/>
-      <c r="CM274" s="7"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:CN126" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN129">
@@ -46218,7 +46049,7 @@
     <hyperlink ref="AZ115" r:id="rId51" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="AZ58" r:id="rId52" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
     <hyperlink ref="AS4" r:id="rId53" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AS129" r:id="rId54" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AS128" r:id="rId54" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
     <hyperlink ref="AS2" r:id="rId55" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
     <hyperlink ref="AS5" r:id="rId56" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
     <hyperlink ref="AS6" r:id="rId57" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
@@ -46450,22 +46281,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="180" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="185"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="186"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68" t="s">
         <v>852</v>
@@ -46474,18 +46305,18 @@
       <c r="L2" s="68" t="s">
         <v>853</v>
       </c>
-      <c r="N2" s="179" t="s">
+      <c r="N2" s="176" t="s">
         <v>881</v>
       </c>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="181" t="str">
-        <f>IF(Entreprises_Complet!BD3=1," initiaux"," des apprentis ET des initiaux")</f>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="178" t="str">
+        <f>IF(Entreprises_Complet2!BD3=1," initiaux"," des apprentis ET des initiaux")</f>
         <v xml:space="preserve"> des apprentis ET des initiaux</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="182"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="179"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z5">
@@ -46536,23 +46367,23 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="180" t="s">
         <v>856</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="185"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
       <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="70"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68" t="s">
@@ -46562,26 +46393,26 @@
       <c r="L2" s="68" t="s">
         <v>853</v>
       </c>
-      <c r="N2" s="192" t="s">
+      <c r="N2" s="189" t="s">
         <v>881</v>
       </c>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
       <c r="R2" s="93" t="str">
-        <f>IF(Entreprises_Complet!BD3=1," initiaux"," des apprentis ET des initiaux")</f>
+        <f>IF(Entreprises_Complet2!BD3=1," initiaux"," des apprentis ET des initiaux")</f>
         <v xml:space="preserve"> des apprentis ET des initiaux</v>
       </c>
       <c r="S2" s="93"/>
       <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="188"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="185"/>
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EBE956-3A6A-4FE9-91CC-CCD4F51EE66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE25A6F-2526-4384-A982-3E4889C85A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4188,9 +4188,6 @@
     <t>Marine Rozet- S2BC App/</t>
   </si>
   <si>
-    <t>Cristal union , Bazancourt</t>
-  </si>
-  <si>
     <t>Givaudan (Ex. Soliance)</t>
   </si>
   <si>
@@ -4321,6 +4318,9 @@
   </si>
   <si>
     <t>Coventya</t>
+  </si>
+  <si>
+    <t>Cristal union, Bazancourt</t>
   </si>
 </sst>
 </file>
@@ -5482,7 +5482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 2 Cristal union , Bazancourt</c:v>
+                  <c:v>N° 2 Cristal union, Bazancourt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5568,7 +5568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 2 Cristal union , Bazancourt</c:v>
+                  <c:v>N° 2 Cristal union, Bazancourt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7570,7 +7570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 21 Cristal union , Bazancourt</c:v>
+                  <c:v>N° 21 Cristal union, Bazancourt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7656,7 +7656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 21 Cristal union , Bazancourt</c:v>
+                  <c:v>N° 21 Cristal union, Bazancourt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15306,9 +15306,9 @@
   <dimension ref="A1:CO273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15887,7 +15887,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
       <c r="D3" s="97" t="str">
         <f t="shared" ref="D3:D66" si="18">IF(BF3&lt;&gt;0,";2022_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2022_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0,";2021_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2021_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0,";2020_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2020_i="&amp;BK3," ")&amp;IF(BL3&lt;&gt;0,";2019_A="&amp;BL3," ")&amp;IF(BM3&lt;&gt;0," ; 2019_i="&amp;BM3," ")&amp;IF(BN3&lt;&gt;0,";2018_A="&amp;BN3," ")&amp;IF(BO3&lt;&gt;0," ; 2018_i="&amp;BO3," ")&amp;IF(BP3&lt;&gt;0," ; 2017_A="&amp;BP3," ")&amp;IF(BQ3&lt;&gt;0," ; 2017_i="&amp;BQ3," ")&amp;IF(BR3&lt;&gt;0," ; 2016_A="&amp;BR3," ")&amp;IF(BS3&lt;&gt;0," ; 2016_i="&amp;BS3," ")&amp;IF(BT3&lt;&gt;0," ; 2015_A="&amp;BT3," ")&amp;IF(BU3&lt;&gt;0," ; 2015_i="&amp;BU3," ")&amp;IF(BV3&lt;&gt;0," ; 2014_A="&amp;BV3," ")&amp;IF(BW3&lt;&gt;0," ; 2014_i="&amp;BW3," ")</f>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="BC3" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>N° 2 Cristal union , Bazancourt</v>
+        <v>N° 2 Cristal union, Bazancourt</v>
       </c>
       <c r="BD3" s="18">
         <f>RANK(BY3,$BY$2:$BY$128)+COUNTIF(BY$2:BY4,BY3)-1</f>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="BE3" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>N° 21 Cristal union , Bazancourt</v>
+        <v>N° 21 Cristal union, Bazancourt</v>
       </c>
       <c r="BF3" s="157">
         <v>1</v>
@@ -16137,7 +16137,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D4" s="97" t="str">
         <f t="shared" si="18"/>
@@ -16819,7 +16819,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D7" s="97" t="str">
         <f t="shared" si="18"/>
@@ -18242,7 +18242,7 @@
         <v>97</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D14" s="97" t="str">
         <f t="shared" si="18"/>
@@ -20238,7 +20238,7 @@
         <v>525</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D24" s="97" t="str">
         <f t="shared" si="18"/>
@@ -21190,7 +21190,7 @@
         <v>961</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D29" s="97" t="str">
         <f t="shared" si="18"/>
@@ -21370,7 +21370,7 @@
         <v>520</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D30" s="97" t="str">
         <f t="shared" si="18"/>
@@ -21930,7 +21930,7 @@
         <v>94</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D33" s="97" t="str">
         <f t="shared" si="18"/>
@@ -22302,7 +22302,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D35" s="97" t="str">
         <f t="shared" si="18"/>
@@ -22496,7 +22496,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D36" s="97" t="str">
         <f t="shared" si="18"/>
@@ -23436,7 +23436,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D41" s="97" t="str">
         <f t="shared" si="18"/>
@@ -24389,7 +24389,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D46" s="97" t="str">
         <f t="shared" si="18"/>
@@ -24579,7 +24579,7 @@
         <v>275</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D47" s="97" t="str">
         <f t="shared" si="18"/>
@@ -24759,7 +24759,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D48" s="97" t="str">
         <f t="shared" si="18"/>
@@ -24939,7 +24939,7 @@
         <v>77</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D49" s="97" t="str">
         <f t="shared" si="18"/>
@@ -25115,7 +25115,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D50" s="97" t="str">
         <f t="shared" si="18"/>
@@ -25289,7 +25289,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D51" s="97" t="str">
         <f t="shared" si="18"/>
@@ -25837,7 +25837,7 @@
         <v>485</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D54" s="97" t="str">
         <f t="shared" si="18"/>
@@ -26010,7 +26010,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D55" s="97" t="str">
         <f t="shared" si="18"/>
@@ -26183,7 +26183,7 @@
         <v>101</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D56" s="97" t="str">
         <f t="shared" si="18"/>
@@ -27609,7 +27609,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D64" s="97" t="str">
         <f t="shared" si="18"/>
@@ -27792,7 +27792,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D65" s="97" t="str">
         <f t="shared" si="18"/>
@@ -27969,7 +27969,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D66" s="97" t="str">
         <f t="shared" si="18"/>
@@ -28327,7 +28327,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D68" s="97" t="str">
         <f t="shared" si="55"/>
@@ -28506,7 +28506,7 @@
         <v>518</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D69" s="97" t="str">
         <f t="shared" si="55"/>
@@ -28860,7 +28860,7 @@
         <v>171</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D71" s="97" t="str">
         <f t="shared" si="55"/>
@@ -29033,7 +29033,7 @@
         <v>247</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D72" s="97" t="str">
         <f t="shared" si="55"/>
@@ -29562,7 +29562,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D75" s="97" t="str">
         <f t="shared" si="55"/>
@@ -29741,7 +29741,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D76" s="97" t="str">
         <f t="shared" si="55"/>
@@ -30996,7 +30996,7 @@
         <v>539</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D83" s="97" t="str">
         <f t="shared" si="55"/>
@@ -31525,7 +31525,7 @@
         <v>596</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D86" s="97" t="str">
         <f t="shared" si="55"/>
@@ -31701,7 +31701,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D87" s="97" t="str">
         <f t="shared" si="55"/>
@@ -33679,7 +33679,7 @@
         <v>665</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D98" s="97" t="str">
         <f t="shared" si="55"/>
@@ -34228,7 +34228,7 @@
         <v>680</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D101" s="97" t="str">
         <f t="shared" si="55"/>
@@ -34407,7 +34407,7 @@
         <v>690</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D102" s="97" t="str">
         <f t="shared" si="55"/>
@@ -34767,7 +34767,7 @@
         <v>713</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D104" s="97" t="str">
         <f t="shared" si="55"/>
@@ -35653,7 +35653,7 @@
         <v>741</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D109" s="97" t="str">
         <f t="shared" si="55"/>
@@ -35834,7 +35834,7 @@
         <v>745</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D110" s="97" t="str">
         <f t="shared" si="55"/>
@@ -36188,7 +36188,7 @@
         <v>101</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D112" s="97" t="str">
         <f t="shared" si="55"/>
@@ -36365,7 +36365,7 @@
         <v>759</v>
       </c>
       <c r="C113" s="191" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D113" s="97" t="str">
         <f t="shared" si="55"/>
@@ -36544,7 +36544,7 @@
         <v>680</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D114" s="97" t="str">
         <f t="shared" si="55"/>
@@ -36898,7 +36898,7 @@
         <v>759</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D116" s="97" t="str">
         <f t="shared" si="55"/>
@@ -37431,7 +37431,7 @@
         <v>634</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D119" s="97" t="str">
         <f t="shared" si="55"/>
@@ -37608,7 +37608,7 @@
         <v>772</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D120" s="97" t="str">
         <f t="shared" si="55"/>
@@ -38805,7 +38805,7 @@
         <v>944</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D127" s="97" t="str">
         <f t="shared" si="55"/>
